--- a/EmailBlast/Excel/Continent/Europe.xlsx
+++ b/EmailBlast/Excel/Continent/Europe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACDBDF-6D84-4CF4-AB03-79B994F9CE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289BFA2A-700C-4C37-9609-4E6090C2C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="555" windowWidth="15375" windowHeight="7875" firstSheet="9" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10200" windowHeight="7875" firstSheet="8" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="1897">
   <si>
     <t>Name</t>
   </si>
@@ -3415,12 +3415,2347 @@
   <si>
     <t>danceproject190</t>
   </si>
+  <si>
+    <t>Hiapop</t>
+  </si>
+  <si>
+    <t>hiapopblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://gcygnus.blogspot.com</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>facebook.com/hiapop @hiapop</t>
+  </si>
+  <si>
+    <t>Scientists of Sound</t>
+  </si>
+  <si>
+    <t>scientistsofsoundmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.sos-music.co.uk</t>
+  </si>
+  <si>
+    <t>sos_musicblog</t>
+  </si>
+  <si>
+    <t>Dandelion Radio</t>
+  </si>
+  <si>
+    <t>station@dandelionradio.com</t>
+  </si>
+  <si>
+    <t>https://www.dandelionradio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/dandelionradio </t>
+  </si>
+  <si>
+    <t>dandelionradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBE </t>
+  </si>
+  <si>
+    <t>soc.kube@keele.ac.uk</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KUBEkeele</t>
+  </si>
+  <si>
+    <t>god bless the BANDS</t>
+  </si>
+  <si>
+    <t>lucy@godblessthebands.com</t>
+  </si>
+  <si>
+    <t>http://godblessthebands.com</t>
+  </si>
+  <si>
+    <t>gbthebandsblog</t>
+  </si>
+  <si>
+    <t>GoldFlakePaint</t>
+  </si>
+  <si>
+    <t>mail@goldflakepaint.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.goldflakepaint.co.uk</t>
+  </si>
+  <si>
+    <t>Joyzine</t>
+  </si>
+  <si>
+    <t>paul@joyzine.org</t>
+  </si>
+  <si>
+    <t>https://joyzine.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/joyzine </t>
+  </si>
+  <si>
+    <t>instagram.com/joyzineuk</t>
+  </si>
+  <si>
+    <t>Nonewwavenofun</t>
+  </si>
+  <si>
+    <t>nonewwavenofunblog@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://nonewwavenofun.blogspot.com</t>
+  </si>
+  <si>
+    <t>facebook.com/NNWNFBlog</t>
+  </si>
+  <si>
+    <t>instagram.com/nonewwavenofun</t>
+  </si>
+  <si>
+    <t>gingerslim</t>
+  </si>
+  <si>
+    <t>gingerslimblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://gingerslim.wordpress.com</t>
+  </si>
+  <si>
+    <t>GingerSlim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/gingerslim_ </t>
+  </si>
+  <si>
+    <t>Unsigned Radio.co.uk</t>
+  </si>
+  <si>
+    <t>unsignedradio@fastmail.fm</t>
+  </si>
+  <si>
+    <t>https://www.unsignedradio.co.uk</t>
+  </si>
+  <si>
+    <t>Conversations With Keiko</t>
+  </si>
+  <si>
+    <t>keikoterry13@gmail.com</t>
+  </si>
+  <si>
+    <t>https://sarahktterry.wixsite.com/mysite</t>
+  </si>
+  <si>
+    <t>instagram.com/conversationswithkeiko</t>
+  </si>
+  <si>
+    <t>GRM Daily</t>
+  </si>
+  <si>
+    <t>submissions@grimedaily.com</t>
+  </si>
+  <si>
+    <t>http://grmdaily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/GRMDaily </t>
+  </si>
+  <si>
+    <t>GRMDAILY</t>
+  </si>
+  <si>
+    <t>A&amp;R Factory</t>
+  </si>
+  <si>
+    <t>https://www.anrfactory.com</t>
+  </si>
+  <si>
+    <t>facebook.com/anrfactory</t>
+  </si>
+  <si>
+    <t>anrfactory</t>
+  </si>
+  <si>
+    <t>Birthday Cake For Breakfast</t>
+  </si>
+  <si>
+    <t>https://birthdaycakebreakfast.wordpress.com</t>
+  </si>
+  <si>
+    <t>facebook.com/BirthdayCakeForBreakfast</t>
+  </si>
+  <si>
+    <t>BirthdayCakeFB</t>
+  </si>
+  <si>
+    <t>50thirdand3rd</t>
+  </si>
+  <si>
+    <t>contact@50thirdand3rd.com</t>
+  </si>
+  <si>
+    <t>https://www.50thirdand3rd.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/50thirdand3rd </t>
+  </si>
+  <si>
+    <t>The Alternative Mixtapes</t>
+  </si>
+  <si>
+    <t>https://app.musosoup.com/submit/TheAlternativeMixtapes</t>
+  </si>
+  <si>
+    <t>facebook.com/thealternativemixtapes</t>
+  </si>
+  <si>
+    <t>instagram.com/thealternativemixtapes</t>
+  </si>
+  <si>
+    <t>Backseat Mafia</t>
+  </si>
+  <si>
+    <t>jimbackseatmafia@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.backseatmafia.com</t>
+  </si>
+  <si>
+    <t>facebook.com/BackseatMafia</t>
+  </si>
+  <si>
+    <t>BackseatMafia</t>
+  </si>
+  <si>
+    <t>Barely Listening</t>
+  </si>
+  <si>
+    <t>https://barelylistening.co.uk</t>
+  </si>
+  <si>
+    <t>barely_listen</t>
+  </si>
+  <si>
+    <t>instagram.com/barelylisteningblog</t>
+  </si>
+  <si>
+    <t>Dots &amp; Dashes</t>
+  </si>
+  <si>
+    <t>http://dotsanddashes.co.uk</t>
+  </si>
+  <si>
+    <t>DotsAndDashes</t>
+  </si>
+  <si>
+    <t>Indie Top 39</t>
+  </si>
+  <si>
+    <t>https://www.indietop39.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/indietop39</t>
+  </si>
+  <si>
+    <t>instagram.com/indietop39</t>
+  </si>
+  <si>
+    <t>Music Crowns</t>
+  </si>
+  <si>
+    <t>sam@musiccrowns.org</t>
+  </si>
+  <si>
+    <t>https://www.musiccrowns.org</t>
+  </si>
+  <si>
+    <t>facebook.com/musiccrowns</t>
+  </si>
+  <si>
+    <t>instagram.com/musiccrowns</t>
+  </si>
+  <si>
+    <t>Nexus Music Blog</t>
+  </si>
+  <si>
+    <t>submissions@nexusmusicblog.com</t>
+  </si>
+  <si>
+    <t>https://nexusmusicblog.com</t>
+  </si>
+  <si>
+    <t>facebook.com/NexusMusicBlog</t>
+  </si>
+  <si>
+    <t>NexusMusicBlog</t>
+  </si>
+  <si>
+    <t>Subba-Cultcha UK</t>
+  </si>
+  <si>
+    <t>https://www.subba-cultcha.com</t>
+  </si>
+  <si>
+    <t>subbacultchacom</t>
+  </si>
+  <si>
+    <t>https://travellerstunes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/travellerstunes </t>
+  </si>
+  <si>
+    <t>TravellersTunes</t>
+  </si>
+  <si>
+    <t>Yeah I Know It Sucks</t>
+  </si>
+  <si>
+    <t>kip@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>https://yeahiknowitsucks.wordpress.com</t>
+  </si>
+  <si>
+    <t>YeahIKnowitSuck</t>
+  </si>
+  <si>
+    <t>RIDE Music</t>
+  </si>
+  <si>
+    <t>https://ridemusicblog.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/RideMusicNE </t>
+  </si>
+  <si>
+    <t>instagram.com/_ridemusic</t>
+  </si>
+  <si>
+    <t>IndustryMe</t>
+  </si>
+  <si>
+    <t>industrymee@gmail.com</t>
+  </si>
+  <si>
+    <t>https://industryme.co.uk</t>
+  </si>
+  <si>
+    <t>Industrymee</t>
+  </si>
+  <si>
+    <t>instagram.com/industrymeofficial</t>
+  </si>
+  <si>
+    <t>Tangaza Magazine</t>
+  </si>
+  <si>
+    <t>https://tangazamagazine.com</t>
+  </si>
+  <si>
+    <t>facebook.com/tangazamagazine</t>
+  </si>
+  <si>
+    <t>tangazamagazine</t>
+  </si>
+  <si>
+    <t>Radio Six International</t>
+  </si>
+  <si>
+    <t>musicsubmissions@radiosix.com</t>
+  </si>
+  <si>
+    <t>https://www.radiosix.com</t>
+  </si>
+  <si>
+    <t>facebook.com/radiosixinternational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Studio, Port Ramsay, Isle of Lismore, Argyll, PA34 5UN </t>
+  </si>
+  <si>
+    <t>Celtica Radio Wales</t>
+  </si>
+  <si>
+    <t>http://www.celticaradio.com</t>
+  </si>
+  <si>
+    <t>CelticaRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 48, Bridgend, CF32 9ZY </t>
+  </si>
+  <si>
+    <t>XRP Radio</t>
+  </si>
+  <si>
+    <t>https://www.xrpradio.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/XRPRadio</t>
+  </si>
+  <si>
+    <t>XRPRadio</t>
+  </si>
+  <si>
+    <t>Itch.FM</t>
+  </si>
+  <si>
+    <t>https://www.itch.fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ItchFM </t>
+  </si>
+  <si>
+    <t>ITCHFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Castalia Sq. Docklands, London, E14 3NG </t>
+  </si>
+  <si>
+    <t>Even The Stars</t>
+  </si>
+  <si>
+    <t>eventhestars@outlook.com</t>
+  </si>
+  <si>
+    <t>https://www.eventhestars.co.uk</t>
+  </si>
+  <si>
+    <t>eventhestarsuk</t>
+  </si>
+  <si>
+    <t>Lost In The Manor</t>
+  </si>
+  <si>
+    <t>chris.lostinthemanor@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.lostinthemanor.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/lostinthemanor </t>
+  </si>
+  <si>
+    <t>LostInTheManor</t>
+  </si>
+  <si>
+    <t>I am Hip Hop Magazine</t>
+  </si>
+  <si>
+    <t>info@iamhiphopmagazine.com</t>
+  </si>
+  <si>
+    <t>http://www.iamhiphopmagazine.com</t>
+  </si>
+  <si>
+    <t>facebook.com/Iamhiphopmagazinelondon</t>
+  </si>
+  <si>
+    <t>A1234</t>
+  </si>
+  <si>
+    <t>https://aonetwothreefour.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/A1234music </t>
+  </si>
+  <si>
+    <t>A1234music</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/a1234</t>
+  </si>
+  <si>
+    <t>Alfitude</t>
+  </si>
+  <si>
+    <t>https://alfitude.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/alfitude </t>
+  </si>
+  <si>
+    <t>alfitude</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/alfitude</t>
+  </si>
+  <si>
+    <t>Bedroom Frequencies</t>
+  </si>
+  <si>
+    <t>https://www.bedroomfrequencies.com</t>
+  </si>
+  <si>
+    <t>BedroomFreq</t>
+  </si>
+  <si>
+    <t>instagram.com/bedroomfrequencies</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/bedroom-frequencies-1</t>
+  </si>
+  <si>
+    <t>Boot Music</t>
+  </si>
+  <si>
+    <t>https://www.boot---music.com</t>
+  </si>
+  <si>
+    <t>instagram.com/bootmusicuk</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/boot-music</t>
+  </si>
+  <si>
+    <t>Conversations About Her</t>
+  </si>
+  <si>
+    <t>editor@conversationsabouther.net</t>
+  </si>
+  <si>
+    <t>https://conversationsabouther.net</t>
+  </si>
+  <si>
+    <t>facebook.com/wepluggoodmusic</t>
+  </si>
+  <si>
+    <t>instagram.com/wepluggoodmusic</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/conversations-about-her</t>
+  </si>
+  <si>
+    <t>Cruel Rhythm</t>
+  </si>
+  <si>
+    <t>https://cruelrhythm.tumblr.com</t>
+  </si>
+  <si>
+    <t>crueljamila</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/cruel-rhythm</t>
+  </si>
+  <si>
+    <t>Indie is not a genre</t>
+  </si>
+  <si>
+    <t>https://www.indieisnotagenre.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service. facebook.com/indieisnotagenre </t>
+  </si>
+  <si>
+    <t>indieisnotagenr</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/indie-is-not-a-genre</t>
+  </si>
+  <si>
+    <t>Loudness</t>
+  </si>
+  <si>
+    <t>https://loudnessblog.com</t>
+  </si>
+  <si>
+    <t>facebook.com/loudness.blog</t>
+  </si>
+  <si>
+    <t>instagram.com/loudness_blog</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/loudness</t>
+  </si>
+  <si>
+    <t>Music For The Misfits</t>
+  </si>
+  <si>
+    <t>https://musicforthemisfits.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/musicforthemisfits </t>
+  </si>
+  <si>
+    <t>musicftmisfits</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/music-for-the-misfits</t>
+  </si>
+  <si>
+    <t>Neon Music</t>
+  </si>
+  <si>
+    <t>https://neonmusic.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/neonmusicnow</t>
+  </si>
+  <si>
+    <t>neonmusicnow</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/neon-music</t>
+  </si>
+  <si>
+    <t>Podcart</t>
+  </si>
+  <si>
+    <t>https://podcart.co</t>
+  </si>
+  <si>
+    <t>glasgowpodcart</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/podcart</t>
+  </si>
+  <si>
+    <t>The Predatory Wasp</t>
+  </si>
+  <si>
+    <t>https://thepredatorywasp.com</t>
+  </si>
+  <si>
+    <t>predatorywasp_</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/the-predatory-wasp</t>
+  </si>
+  <si>
+    <t>Secret Eclectic</t>
+  </si>
+  <si>
+    <t>https://secreteclectic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/secreteclectic</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/secreteclectic</t>
+  </si>
+  <si>
+    <t>Various Small Flames</t>
+  </si>
+  <si>
+    <t>https://varioussmallflames.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/VariousSmallFlames</t>
+  </si>
+  <si>
+    <t>VSmallFlames</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/various-small-flames</t>
+  </si>
+  <si>
+    <t>When The Horn Blows</t>
+  </si>
+  <si>
+    <t>https://www.whenthehornblows.com</t>
+  </si>
+  <si>
+    <t>WTHBlows</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/when-the-horn-blows</t>
+  </si>
+  <si>
+    <t>York Calling</t>
+  </si>
+  <si>
+    <t>https://yorkcalling.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/york.calling </t>
+  </si>
+  <si>
+    <t>york_calling</t>
+  </si>
+  <si>
+    <t>Blatantly Blunt</t>
+  </si>
+  <si>
+    <t>https://www.blatantlyblunt.com</t>
+  </si>
+  <si>
+    <t>facebook.com/blatantlyblunt</t>
+  </si>
+  <si>
+    <t>instagram.com/blatantlyblunt</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/blatantly-blunt</t>
+  </si>
+  <si>
+    <t>Channel WAVY</t>
+  </si>
+  <si>
+    <t>https://channelwavy.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/channel-wavey</t>
+  </si>
+  <si>
+    <t>27 Leggies</t>
+  </si>
+  <si>
+    <t>leggies27@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>https://27leggies.blogspot.com</t>
+  </si>
+  <si>
+    <t>Amplified Sound</t>
+  </si>
+  <si>
+    <t>d.bailey1@outlook.com</t>
+  </si>
+  <si>
+    <t>https://dougiebee.wordpress.com</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>facebook.com/amplifiedsound1</t>
+  </si>
+  <si>
+    <t>instagram.com/amplifiedsound</t>
+  </si>
+  <si>
+    <t>Any Decent Music</t>
+  </si>
+  <si>
+    <t>admteam@anydecentmusic.com</t>
+  </si>
+  <si>
+    <t>http://www.anydecentmusic.com</t>
+  </si>
+  <si>
+    <t>AnyDecentMusic</t>
+  </si>
+  <si>
+    <t>Beehive Candy</t>
+  </si>
+  <si>
+    <t>perfectradio@btinternet.com</t>
+  </si>
+  <si>
+    <t>https://www.beehivecandy.com</t>
+  </si>
+  <si>
+    <t>perfectradio1</t>
+  </si>
+  <si>
+    <t>Bitter Sweet Symphonies</t>
+  </si>
+  <si>
+    <t>charlottebittersweetsymphonies@gmail.com</t>
+  </si>
+  <si>
+    <t>https://bittersweetsymphonies.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/bittersweetsymphoniesblog</t>
+  </si>
+  <si>
+    <t>Symphoniesblog</t>
+  </si>
+  <si>
+    <t>Breaking More Waves</t>
+  </si>
+  <si>
+    <t>robinseamer@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>https://breakingmorewaves.blogspot.com</t>
+  </si>
+  <si>
+    <t>BMWavesBlog</t>
+  </si>
+  <si>
+    <t>Cast the Dice</t>
+  </si>
+  <si>
+    <t>info@castthedice.org</t>
+  </si>
+  <si>
+    <t>https://castthedice.org</t>
+  </si>
+  <si>
+    <t>facebook.com/castthedice</t>
+  </si>
+  <si>
+    <t>CIRCUIT SWEET</t>
+  </si>
+  <si>
+    <t>naomi@circuitsweet.co.uk</t>
+  </si>
+  <si>
+    <t>https://circuitsweet.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/circuitsweet </t>
+  </si>
+  <si>
+    <t>circuitsweet</t>
+  </si>
+  <si>
+    <t>Closewatch Music Blog</t>
+  </si>
+  <si>
+    <t>closewatchmusicblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://closewatchmusic.wordpress.com</t>
+  </si>
+  <si>
+    <t>ClosewatchMusic</t>
+  </si>
+  <si>
+    <t>ColoRising</t>
+  </si>
+  <si>
+    <t>info@colorising.com</t>
+  </si>
+  <si>
+    <t>https://colorising.com</t>
+  </si>
+  <si>
+    <t>facebook.com/colorising</t>
+  </si>
+  <si>
+    <t>cool music and things</t>
+  </si>
+  <si>
+    <t>coolmusicandthings@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.coolmusicandthings.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/coolmusicandthings</t>
+  </si>
+  <si>
+    <t>instagram.com/coolmusicandthings</t>
+  </si>
+  <si>
+    <t>Curious For Music</t>
+  </si>
+  <si>
+    <t>curiousformusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.curiousformusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/curiousformusic</t>
+  </si>
+  <si>
+    <t>Dead Good Music</t>
+  </si>
+  <si>
+    <t>deadgoodblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://deadgoodmusic.blog</t>
+  </si>
+  <si>
+    <t>deadgoodblog</t>
+  </si>
+  <si>
+    <t>instagram.com/deadgoodblog</t>
+  </si>
+  <si>
+    <t>EAR PROTECTION REQUIRED</t>
+  </si>
+  <si>
+    <t>earprotectreq@gmail.com</t>
+  </si>
+  <si>
+    <t>https://earprotectionrequired.wordpress.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/Earprotectionrequired </t>
+  </si>
+  <si>
+    <t>EARPROTECTREQ</t>
+  </si>
+  <si>
+    <t>For The Rabbits</t>
+  </si>
+  <si>
+    <t>fortherabbitsmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://fortherabbits.wordpress.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/fortherabbitsmusic </t>
+  </si>
+  <si>
+    <t>ForTheRabbits</t>
+  </si>
+  <si>
+    <t>Fortitude Magazine</t>
+  </si>
+  <si>
+    <t>dave@fortitudemagazine.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.fortitudemagazine.co.uk</t>
+  </si>
+  <si>
+    <t>FortitudeMag</t>
+  </si>
+  <si>
+    <t>Gig Goer</t>
+  </si>
+  <si>
+    <t>info@giggoer.com</t>
+  </si>
+  <si>
+    <t>https://giggoer.com</t>
+  </si>
+  <si>
+    <t>facebook.com/GigGoerBlog</t>
+  </si>
+  <si>
+    <t>_GigGoer_</t>
+  </si>
+  <si>
+    <t>Glasswerk</t>
+  </si>
+  <si>
+    <t>editor@glasswerk.co.uk</t>
+  </si>
+  <si>
+    <t>https://glasswerk.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/glasswerk</t>
+  </si>
+  <si>
+    <t>The Grace Note Blog</t>
+  </si>
+  <si>
+    <t>thegracenoteblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://thegracenoteblog.blogspot.com</t>
+  </si>
+  <si>
+    <t>instagram.com/thegracenoteblog</t>
+  </si>
+  <si>
+    <t>...hang the dj</t>
+  </si>
+  <si>
+    <t>hangthedjmag@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.cristinarocks.com</t>
+  </si>
+  <si>
+    <t>Hard Of Hearing Music</t>
+  </si>
+  <si>
+    <t>hardofhearingmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://hardofhearingmusic.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/hardofhearingmusic </t>
+  </si>
+  <si>
+    <t>Hardofhearingmu</t>
+  </si>
+  <si>
+    <t>High Violet</t>
+  </si>
+  <si>
+    <t>highviolet@outlook.com</t>
+  </si>
+  <si>
+    <t>https://highvioletblog.wordpress.com</t>
+  </si>
+  <si>
+    <t>In Your Ears</t>
+  </si>
+  <si>
+    <t>submittracks@inyourearsmusic.com</t>
+  </si>
+  <si>
+    <t>https://www.inyourearsmusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/InYourEarsMusic</t>
+  </si>
+  <si>
+    <t>instagram.com/InYourEarsMusic</t>
+  </si>
+  <si>
+    <t>It's All Indie</t>
+  </si>
+  <si>
+    <t>fred@itsallindie.com</t>
+  </si>
+  <si>
+    <t>https://www.itsallindie.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ItsAllIndie </t>
+  </si>
+  <si>
+    <t>Its_All_Indie</t>
+  </si>
+  <si>
+    <t>Let It Happen Blog</t>
+  </si>
+  <si>
+    <t>samuellewis08@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>https://letithappenmusicblog.com</t>
+  </si>
+  <si>
+    <t>letithappenblog</t>
+  </si>
+  <si>
+    <t>Life Is A Lemon</t>
+  </si>
+  <si>
+    <t>myvoicebrandnew@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://www.lifeisalemon.co.uk</t>
+  </si>
+  <si>
+    <t>instagram.com/myvoicebrandnew</t>
+  </si>
+  <si>
+    <t>Listen With Monger</t>
+  </si>
+  <si>
+    <t>ravenouspr@live.co.uk</t>
+  </si>
+  <si>
+    <t>https://listenwithmonger.blogspot.com</t>
+  </si>
+  <si>
+    <t>facebook.com/ListenWithMonger</t>
+  </si>
+  <si>
+    <t>listenwivmonger</t>
+  </si>
+  <si>
+    <t>Love Music; Love Life</t>
+  </si>
+  <si>
+    <t>clairewhite@lovemusiclovelife.com</t>
+  </si>
+  <si>
+    <t>https://lovemusiclovelife.com</t>
+  </si>
+  <si>
+    <t>facebook.com/lovemusiclovelifeuk</t>
+  </si>
+  <si>
+    <t>lmlluk</t>
+  </si>
+  <si>
+    <t>the most radicalist</t>
+  </si>
+  <si>
+    <t>contact@themostradicalist.com</t>
+  </si>
+  <si>
+    <t>http://www.themostradicalist.com</t>
+  </si>
+  <si>
+    <t>tmradicalist</t>
+  </si>
+  <si>
+    <t>The Music Files</t>
+  </si>
+  <si>
+    <t>themusicfilesblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://the-music-files.com</t>
+  </si>
+  <si>
+    <t>Themusicfiles</t>
+  </si>
+  <si>
+    <t>Music Matters</t>
+  </si>
+  <si>
+    <t>contact@musicmattersgb.com</t>
+  </si>
+  <si>
+    <t>https://musicmattersgb.com</t>
+  </si>
+  <si>
+    <t>facebook.com/MusicMattersGB.Blog</t>
+  </si>
+  <si>
+    <t>MusicMatters_GB</t>
+  </si>
+  <si>
+    <t>MusicMafia</t>
+  </si>
+  <si>
+    <t>musicmafiauk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://musicmafiauk.com</t>
+  </si>
+  <si>
+    <t>facebook.com/ukmusicmafia</t>
+  </si>
+  <si>
+    <t>musicmafiauk</t>
+  </si>
+  <si>
+    <t>Musicvein</t>
+  </si>
+  <si>
+    <t>info@musicvein.co.uk</t>
+  </si>
+  <si>
+    <t>https://musicvein.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/MusicVein </t>
+  </si>
+  <si>
+    <t>instagram.com/musicvein</t>
+  </si>
+  <si>
+    <t>New Sound Generation</t>
+  </si>
+  <si>
+    <t>info@nsgmagazinelive.uk</t>
+  </si>
+  <si>
+    <t>https://newsoundgeneration.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/NSGmagazinelive</t>
+  </si>
+  <si>
+    <t>instagram.com/nsgmagazinelive</t>
+  </si>
+  <si>
+    <t>Noizze</t>
+  </si>
+  <si>
+    <t>krispugh.noizze@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.noizze.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/noizzeuk </t>
+  </si>
+  <si>
+    <t>NoizzeUK</t>
+  </si>
+  <si>
+    <t>Northern Exposure</t>
+  </si>
+  <si>
+    <t>contact@northern-exposure.co</t>
+  </si>
+  <si>
+    <t>http://northern-exposure.co</t>
+  </si>
+  <si>
+    <t>NorthExpWebzine</t>
+  </si>
+  <si>
+    <t>Platinum Mind</t>
+  </si>
+  <si>
+    <t>derek@platinummind.net</t>
+  </si>
+  <si>
+    <t>https://platinummind.net</t>
+  </si>
+  <si>
+    <t>platinummind</t>
+  </si>
+  <si>
+    <t>Popped Music</t>
+  </si>
+  <si>
+    <t>elena@poppedmusic.co.uk</t>
+  </si>
+  <si>
+    <t>https://poppedmusic.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/poppedmusic </t>
+  </si>
+  <si>
+    <t>poppedmusic</t>
+  </si>
+  <si>
+    <t>Real Tasty Music</t>
+  </si>
+  <si>
+    <t>realtastymusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://realtastymusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/realtastymusicc</t>
+  </si>
+  <si>
+    <t>realtastymusic</t>
+  </si>
+  <si>
+    <t>Record of the Day</t>
+  </si>
+  <si>
+    <t>kevin@recordoftheday.com</t>
+  </si>
+  <si>
+    <t>https://www.recordoftheday.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 49554, London, E17 9WB </t>
+  </si>
+  <si>
+    <t>Saint Audio</t>
+  </si>
+  <si>
+    <t>saintaudioblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.saintaudio.com</t>
+  </si>
+  <si>
+    <t>saintaudio</t>
+  </si>
+  <si>
+    <t>Spruced Up Music Reviews</t>
+  </si>
+  <si>
+    <t>sprucedupreviews@gmail.com</t>
+  </si>
+  <si>
+    <t>https://sprucedupreviews.com</t>
+  </si>
+  <si>
+    <t>instagram.com/sprucedupreviews</t>
+  </si>
+  <si>
+    <t>Stamp The Wax</t>
+  </si>
+  <si>
+    <t>info@stampthewax.com</t>
+  </si>
+  <si>
+    <t>https://www.stampthewax.com</t>
+  </si>
+  <si>
+    <t>facebook.com/stampthewax</t>
+  </si>
+  <si>
+    <t>Teases and Dares</t>
+  </si>
+  <si>
+    <t>daresandteases@aol.co.uk</t>
+  </si>
+  <si>
+    <t>https://teasesanddares.wordpress.com</t>
+  </si>
+  <si>
+    <t>backstreetjoe</t>
+  </si>
+  <si>
+    <t>That Blogger Music</t>
+  </si>
+  <si>
+    <t>that-blogger@outlook.com</t>
+  </si>
+  <si>
+    <t>https://thatbloggermusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/ThatBloggerMusic</t>
+  </si>
+  <si>
+    <t>That_Blogger16</t>
+  </si>
+  <si>
+    <t>Turtle Tempo</t>
+  </si>
+  <si>
+    <t>contact@turtletempo.co.uk</t>
+  </si>
+  <si>
+    <t>https://turtletempo.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/WeAreTurtleTempo</t>
+  </si>
+  <si>
+    <t>TurtleTempo</t>
+  </si>
+  <si>
+    <t>Twistedsoul</t>
+  </si>
+  <si>
+    <t>twistedsoulblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://twistedsoulmusic.org</t>
+  </si>
+  <si>
+    <t>facebook.com/twistedsoulmusic</t>
+  </si>
+  <si>
+    <t>Twistedsoulblog</t>
+  </si>
+  <si>
+    <t>Underground A -N- R</t>
+  </si>
+  <si>
+    <t>undergroundanr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://undergroundanr.wordpress.com</t>
+  </si>
+  <si>
+    <t>underground_anr</t>
+  </si>
+  <si>
+    <t>Velvet Independent</t>
+  </si>
+  <si>
+    <t>velvetindependent@gmail.com</t>
+  </si>
+  <si>
+    <t>https://velvetindependent.com</t>
+  </si>
+  <si>
+    <t>facebook.com/velvetindependent</t>
+  </si>
+  <si>
+    <t>UK_Velvet</t>
+  </si>
+  <si>
+    <t>Vibez Music</t>
+  </si>
+  <si>
+    <t>vibezmusicinfo@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.vibezmusic.org</t>
+  </si>
+  <si>
+    <t>facebook.com/VibezMusicOfficial</t>
+  </si>
+  <si>
+    <t>vibe_zmusic</t>
+  </si>
+  <si>
+    <t>THE (new) VINYL VILLAIN</t>
+  </si>
+  <si>
+    <t>thevinylvillain@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>https://thenewvinylvillain.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Von Pip Musical Express </t>
+  </si>
+  <si>
+    <t>vonpip@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.thevpme.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/TheVonPipMusicalExpress </t>
+  </si>
+  <si>
+    <t>VonPip</t>
+  </si>
+  <si>
+    <t>With Just A Hint Of Mayhem</t>
+  </si>
+  <si>
+    <t>withjustahintofmayhem@gmail.com</t>
+  </si>
+  <si>
+    <t>https://withjustahintofmayhem.blog</t>
+  </si>
+  <si>
+    <t>facebook.com/withjustahintofmayhem</t>
+  </si>
+  <si>
+    <t>ahintofmayhem</t>
+  </si>
+  <si>
+    <t>Mixtape Madness</t>
+  </si>
+  <si>
+    <t>submissions@mixtapemadness.com</t>
+  </si>
+  <si>
+    <t>https://www.mixtapemadness.com</t>
+  </si>
+  <si>
+    <t>facebook.com/MixtapeMadnessUK</t>
+  </si>
+  <si>
+    <t>instagram.com/mixtapemadness</t>
+  </si>
+  <si>
+    <t>Old To The New</t>
+  </si>
+  <si>
+    <t>ryan.p@lineone.net</t>
+  </si>
+  <si>
+    <t>https://oldtothenew.wordpress.com</t>
+  </si>
+  <si>
+    <t>RyanProctor75</t>
+  </si>
+  <si>
+    <t>Reverb Music</t>
+  </si>
+  <si>
+    <t>reverb.music@outlook.com</t>
+  </si>
+  <si>
+    <t>https://reverbmusic.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/rvbmsc </t>
+  </si>
+  <si>
+    <t>instagram.com/reverbmsc</t>
+  </si>
+  <si>
+    <t>Urban Vault UK</t>
+  </si>
+  <si>
+    <t>info@urbanvault.co.uk</t>
+  </si>
+  <si>
+    <t>https://urbanvault.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/UrbanVaultUK </t>
+  </si>
+  <si>
+    <t>instagram.com/instavault</t>
+  </si>
+  <si>
+    <t>The Soul Mixtape</t>
+  </si>
+  <si>
+    <t>thesoulmixtape@aol.com</t>
+  </si>
+  <si>
+    <t>https://soulnrnb.blogspot.com</t>
+  </si>
+  <si>
+    <t>SoulNRnB</t>
+  </si>
+  <si>
+    <t>Musical Traditions</t>
+  </si>
+  <si>
+    <t>rod@mustrad.org.uk</t>
+  </si>
+  <si>
+    <t>https://www.mustrad.org.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Castel St., Stroud, Glos, GL5 2HP </t>
+  </si>
+  <si>
+    <t>Songlines Magazine</t>
+  </si>
+  <si>
+    <t>info@songlines.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.songlines.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/songlines</t>
+  </si>
+  <si>
+    <t>SonglinesMag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Jude’s Church, Dulwich Rd. London, SE24 0PB </t>
+  </si>
+  <si>
+    <t>ALL FM</t>
+  </si>
+  <si>
+    <t>ed@allfm.org</t>
+  </si>
+  <si>
+    <t>https://allfm.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ALLFM </t>
+  </si>
+  <si>
+    <t>ALLFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levenshulme Old Library, Cromwell Grove, Levenshulme,Manchester, M19 3QE </t>
+  </si>
+  <si>
+    <t>BCB Radio</t>
+  </si>
+  <si>
+    <t>hello@bcbradio.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.bcbradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/bcbradio </t>
+  </si>
+  <si>
+    <t>bcbradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Rawson Rd. Bradford, West Yorkshire, BD1 3SH </t>
+  </si>
+  <si>
+    <t>Beat Route Radio</t>
+  </si>
+  <si>
+    <t>studio@beatrouteradio.co.uk</t>
+  </si>
+  <si>
+    <t>https://beatrouteradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/beatrouteradio </t>
+  </si>
+  <si>
+    <t>BeatRouteRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cam FM </t>
+  </si>
+  <si>
+    <t>music@camfm.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.camfm.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/camfm972 </t>
+  </si>
+  <si>
+    <t>camfm972</t>
+  </si>
+  <si>
+    <t>CVFM Radio</t>
+  </si>
+  <si>
+    <t>studio@cvfm.org.uk</t>
+  </si>
+  <si>
+    <t>https://www.cvfm.org.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/cvfmradio </t>
+  </si>
+  <si>
+    <t>cvfmradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169 Victoria Rd. Middlesbrough, TS1 3HR </t>
+  </si>
+  <si>
+    <t>Future Radio</t>
+  </si>
+  <si>
+    <t>info@futureradio.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.futureradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/FutureRadio </t>
+  </si>
+  <si>
+    <t>futureradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbourhood Ctr. 168b Motum Rd. Norwich, Norfolk, NR5 8EG </t>
+  </si>
+  <si>
+    <t>Gateway 97.8</t>
+  </si>
+  <si>
+    <t>unsigned@gateway978.com</t>
+  </si>
+  <si>
+    <t>https://www.gateway978.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/Gateway978 </t>
+  </si>
+  <si>
+    <t>Gateway978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gideon Coe </t>
+  </si>
+  <si>
+    <t>gideon.6music@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/programmes/b0072l9v</t>
+  </si>
+  <si>
+    <t>facebook.com/BBCRadio6Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Music, Western House, 99 Great Portland St., London, W1A 1AA </t>
+  </si>
+  <si>
+    <t>Hermitage FM</t>
+  </si>
+  <si>
+    <t>admin@hermitagefm.com</t>
+  </si>
+  <si>
+    <t>https://www.hermitagefm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/hermitagefm </t>
+  </si>
+  <si>
+    <t>hermitagefm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial Sq. Coalville, Leicestershire, LE67 </t>
+  </si>
+  <si>
+    <t>HFM Radio</t>
+  </si>
+  <si>
+    <t>simon.parry@harboroughfm.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.harboroughfm.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/harboroughfm </t>
+  </si>
+  <si>
+    <t>hfmnews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit 5, Fernie House, Fernie Rd. Market Harborough, Leicestershire, LE16 7PH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insanity Radio </t>
+  </si>
+  <si>
+    <t>studio@insanityradio.com</t>
+  </si>
+  <si>
+    <t>https://www.insanityradio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/insanityradio </t>
+  </si>
+  <si>
+    <t>InsanityRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sIpswich Community </t>
+  </si>
+  <si>
+    <t>directors@icrfm.com</t>
+  </si>
+  <si>
+    <t>https://www.icrfm.com</t>
+  </si>
+  <si>
+    <t>icrfm1057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Turret Ln. Ipswich, IP1 4DL </t>
+  </si>
+  <si>
+    <t>Isles FM</t>
+  </si>
+  <si>
+    <t>music@islesfm.com</t>
+  </si>
+  <si>
+    <t>http://www.islesfm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/islesfm </t>
+  </si>
+  <si>
+    <t>IslesFM103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Seaforth Rd. Stornoway, Eilean Siar, HS1 2SH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCC Live </t>
+  </si>
+  <si>
+    <t>office@kcclive.com</t>
+  </si>
+  <si>
+    <t>https://www.kcclive.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kccliveofficial </t>
+  </si>
+  <si>
+    <t>KCCLIVE</t>
+  </si>
+  <si>
+    <t>LCR</t>
+  </si>
+  <si>
+    <t>media@lsu.co.uk</t>
+  </si>
+  <si>
+    <t>https://media.lsu.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/lsumedia </t>
+  </si>
+  <si>
+    <t>Livewire</t>
+  </si>
+  <si>
+    <t>hello@livewire1350.com</t>
+  </si>
+  <si>
+    <t>http://livewire1350.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/livewire1350am </t>
+  </si>
+  <si>
+    <t>Livewire1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSR FM </t>
+  </si>
+  <si>
+    <t>music@thisislsr.com</t>
+  </si>
+  <si>
+    <t>https://www.thisislsr.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/thisislsr </t>
+  </si>
+  <si>
+    <t>ThisIsLSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Riley </t>
+  </si>
+  <si>
+    <t>marc.6music@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/programmes/b00c72y1</t>
+  </si>
+  <si>
+    <t>BBC6Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off the Beaten Track </t>
+  </si>
+  <si>
+    <t>studio@somervalleyfm.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.somervalleyfm.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/somervalleyfm</t>
+  </si>
+  <si>
+    <t>SomerValleyFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Chad's Ave. Midsomer Norton, Radstock, BA3 2HG </t>
+  </si>
+  <si>
+    <t>Original 106</t>
+  </si>
+  <si>
+    <t>craig.lumsden@originalfm.com</t>
+  </si>
+  <si>
+    <t>http://www.originalfm.com</t>
+  </si>
+  <si>
+    <t>facebook.com/originalaberdeen</t>
+  </si>
+  <si>
+    <t>originalfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Marischal Sq. Broad St., Aberdeen, AB10 1BL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide Radio </t>
+  </si>
+  <si>
+    <t>oxideradiostationmanager@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.oxideradio.live</t>
+  </si>
+  <si>
+    <t>OxideRadioLive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Worcester St., Oxford, OX1 2BX </t>
+  </si>
+  <si>
+    <t>Phoenix 96.7 FM</t>
+  </si>
+  <si>
+    <t>tvalleyscene@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.phoenixfm.co.uk</t>
+  </si>
+  <si>
+    <t>facebook.com/phoenixfm96.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Mill, Dean Clough Mills, Halifax, West Yorkshire, HX3 5AX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURE FM </t>
+  </si>
+  <si>
+    <t>hello@purefm.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PureFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Ctr. Cambridge Rd. Portsmouth, Hampshire PO1 2EF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Radio </t>
+  </si>
+  <si>
+    <t>music@purpleradio.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.purpleradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/PurpleRadio </t>
+  </si>
+  <si>
+    <t>PurpleRadioUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durham Students Union, New Elvet, Durham, DH1 3AN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Radio </t>
+  </si>
+  <si>
+    <t>music@queensradio.org</t>
+  </si>
+  <si>
+    <t>https://queensradio.org</t>
+  </si>
+  <si>
+    <t>QueensRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Elmwood Ave. Belfast, BT9 6AZ </t>
+  </si>
+  <si>
+    <t>RADIO SKYE</t>
+  </si>
+  <si>
+    <t>suzy@radioskye.com</t>
+  </si>
+  <si>
+    <t>https://radioskye.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/radioskye </t>
+  </si>
+  <si>
+    <t>radio_skye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormyhill Rd. Portree, Isle of Skye, IV51 9DT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Warwick </t>
+  </si>
+  <si>
+    <t>raw.ml.music@gmail.com</t>
+  </si>
+  <si>
+    <t>https://radio.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/raw1251am </t>
+  </si>
+  <si>
+    <t>RAW1251AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student's Union Coventry, CV4 7AL </t>
+  </si>
+  <si>
+    <t>Radio Wey</t>
+  </si>
+  <si>
+    <t>info@radiowey.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.radiowey.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/radiowey </t>
+  </si>
+  <si>
+    <t>radiowey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Peter's Hospital, Guildford Rd. Chertsey, Surrey, KT16 0PZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare FM </t>
+  </si>
+  <si>
+    <t>rarefm@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>http://www.rarefm.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/rarefm </t>
+  </si>
+  <si>
+    <t>instagram.com/rarefm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basement Studio 15, UCL, 15 Gordon St.,
+London, WC1H 0AH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday Alternative </t>
+  </si>
+  <si>
+    <t>SirenFM</t>
+  </si>
+  <si>
+    <t>music@sirenonline.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.sirenonline.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/sirenradio1073 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Fl. MHT Bldg. Brayford Pool, Lincoln, LN6 7TS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke Radio </t>
+  </si>
+  <si>
+    <t>radio.deputy@smoke.media</t>
+  </si>
+  <si>
+    <t>https://www.uwsu.com/groups/smoke-radio-4093</t>
+  </si>
+  <si>
+    <t>Smoke_Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/smoke_radio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students Union, Harrow Campus, London, HA1 3TP </t>
+  </si>
+  <si>
+    <t>Somer Valley FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/somervalleyfm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Chad’s Ave. Midsomer Norton, Radstock. BA3 2HG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star FM </t>
+  </si>
+  <si>
+    <t>music@standrewsradio.com</t>
+  </si>
+  <si>
+    <t>https://standrewsradio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/standrewsradio </t>
+  </si>
+  <si>
+    <t>standrewsradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Mary's Place, St Andrews, Fife, KY16 9UX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Lamacq Show </t>
+  </si>
+  <si>
+    <t>lamacq.6music@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/programmes/b0072lb2</t>
+  </si>
+  <si>
+    <t>BBCRadio2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcity Radio </t>
+  </si>
+  <si>
+    <t>programmes@subcity.org</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SubcityRadio</t>
+  </si>
+  <si>
+    <t>SubcityRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/subcityradio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John McIntyre Bldg. University Ave. Glasgow, G12 8QQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Radio Falmer </t>
+  </si>
+  <si>
+    <t>station.manager@urfonline.com</t>
+  </si>
+  <si>
+    <t>https://www.urfonline.com</t>
+  </si>
+  <si>
+    <t>facebook.com/URFOfficial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Floor, Falmer House, Brighton, BN1 9QF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Radio York </t>
+  </si>
+  <si>
+    <t>music@ury.org.uk</t>
+  </si>
+  <si>
+    <t>https://ury.org.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/URY1350 </t>
+  </si>
+  <si>
+    <t>URY1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c/o Vanbrugh College, U. York, Heslington, York, YO10 5DD </t>
+  </si>
+  <si>
+    <t>URB</t>
+  </si>
+  <si>
+    <t>thesu@bath.ac.uk</t>
+  </si>
+  <si>
+    <t>https://www.thesubath.com/media/1449amurb</t>
+  </si>
+  <si>
+    <t>facebook.com/uniradiobath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students' Union, Claverton Down, Bath, BA2 7AY </t>
+  </si>
+  <si>
+    <t>URN</t>
+  </si>
+  <si>
+    <t>music@urn1350.net</t>
+  </si>
+  <si>
+    <t>https://urn1350.net</t>
+  </si>
+  <si>
+    <t>URN1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/urn1350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students Union U. Park Nottingham, NG7 2RD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWS Radio </t>
+  </si>
+  <si>
+    <t>info@uwsradio.co.uk</t>
+  </si>
+  <si>
+    <t>http://uwsradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/uwsradio </t>
+  </si>
+  <si>
+    <t>UWSRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office 2097, University Ave. Ayr, KA8 0SX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xpression </t>
+  </si>
+  <si>
+    <t>music@xpression.fm</t>
+  </si>
+  <si>
+    <t>http://www.xpression.fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/XpressionFM </t>
+  </si>
+  <si>
+    <t>XpressionFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c/o Devonshire House, Stocker Rd. Exeter, Devon, EX4 4PZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xtreme Radio </t>
+  </si>
+  <si>
+    <t>music@xtremeradio.org</t>
+  </si>
+  <si>
+    <t>http://www.swanseastudentmedia.com/xtreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union House, Singleton Park, Swansea, SA2 0AE </t>
+  </si>
+  <si>
+    <t>Radio Clash</t>
+  </si>
+  <si>
+    <t>tim@radioclash.com</t>
+  </si>
+  <si>
+    <t>https://www.radioclash.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/RadioClashBlog </t>
+  </si>
+  <si>
+    <t>radioclashblog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41A Sydney Dye Ct. Swaffham, Norfolk, PE32 2EE </t>
+  </si>
+  <si>
+    <t>Radio Gets Wild</t>
+  </si>
+  <si>
+    <t>tim@radiogetswild.com</t>
+  </si>
+  <si>
+    <t>https://www.radiogetswild.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shock Radio </t>
+  </si>
+  <si>
+    <t>info@shockradio.co.uk</t>
+  </si>
+  <si>
+    <t>https://shockradio.co.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/shockradio </t>
+  </si>
+  <si>
+    <t>ShockRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University House, The Crescent, Salford, Manchester, M5 4WT </t>
+  </si>
+  <si>
+    <t>Skunk Radio Live</t>
+  </si>
+  <si>
+    <t>studio@skunkradiolive.com</t>
+  </si>
+  <si>
+    <t>https://www.skunkradiolive.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/skunkradiolive </t>
+  </si>
+  <si>
+    <t>skunkradiolive</t>
+  </si>
+  <si>
+    <t>Smile Radio Yorkshire</t>
+  </si>
+  <si>
+    <t>richard@smileradio.co</t>
+  </si>
+  <si>
+    <t>https://www.smileradio.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/SmileRadioYorkshire </t>
+  </si>
+  <si>
+    <t>Smileradio3</t>
+  </si>
+  <si>
+    <t>Soho Radio</t>
+  </si>
+  <si>
+    <t>music@sohoradiolondon.com</t>
+  </si>
+  <si>
+    <t>https://sohoradiolondon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/sohoradio </t>
+  </si>
+  <si>
+    <t>sohoradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 Broadwick St., London, W1F 0DG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code of the Streets </t>
+  </si>
+  <si>
+    <t>djstyle@ujimaradio.com</t>
+  </si>
+  <si>
+    <t>https://www.ujimaradio.com</t>
+  </si>
+  <si>
+    <t>facebook.com/UjimaRadio98fm</t>
+  </si>
+  <si>
+    <t>djstylebig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Station, Silver St., Broadmead, Bristol, BS1 2AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hip Hop Essence </t>
+  </si>
+  <si>
+    <t>ujimaoffice@gmail.com</t>
+  </si>
+  <si>
+    <t>Ujimaradio</t>
+  </si>
+  <si>
+    <t>Universal Magnetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/UjimaRadio98fm </t>
+  </si>
+  <si>
+    <t>Westside Radio</t>
+  </si>
+  <si>
+    <t>info@thisiswestside.com</t>
+  </si>
+  <si>
+    <t>https://www.thisiswestside.com</t>
+  </si>
+  <si>
+    <t>thisiswestside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nstagram.com/thisiswestside </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A World Of Difference </t>
+  </si>
+  <si>
+    <t>studio@gateway978.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Galleries, Eastgate Centre, SS14 1EB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Planet </t>
+  </si>
+  <si>
+    <t>musicplanet@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/programmes/b09ymx3v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/bbcradio3 </t>
+  </si>
+  <si>
+    <t>BBCRadio3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3489,6 +5824,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3511,7 +5859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3544,6 +5892,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3904,10 +6257,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:XFD268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7783,6 +10136,2797 @@
       </c>
       <c r="G153" t="s">
         <v>1118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J169">
+        <v>447729073826</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J171">
+        <v>441517079044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H180" s="12"/>
+      <c r="J180">
+        <v>7974078605</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J193">
+        <v>2082231224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G203" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J203">
+        <v>447954723104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="16" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D208" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D212" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J212">
+        <v>1453759475</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J213">
+        <v>4402077385454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J214">
+        <v>1612486888</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I216" s="4"/>
+      <c r="J216">
+        <v>4407895669929</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J218">
+        <v>1642688104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J219">
+        <v>1603250056</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J221">
+        <v>8700100600</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J222">
+        <v>1530460992</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J223">
+        <v>1858464666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J225">
+        <v>1473230716</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J226">
+        <v>44185170333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D230" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J231">
+        <v>8700100600</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J232">
+        <v>441761411755</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J233">
+        <v>1224294860</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J234">
+        <v>1865288452</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I235" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J235">
+        <v>1422365923</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J236">
+        <v>2392843848</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I237" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J237">
+        <v>1916455100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="16" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I238" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J238">
+        <v>2890971065</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="13" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I239" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J239">
+        <v>4401478611796</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="16" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I240" s="11" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J240">
+        <v>2476573077</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J241">
+        <v>1932874433</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="16" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H242" s="14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J242">
+        <v>4402076792509</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I243" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J243">
+        <v>1422365923</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="16" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I244" s="11" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J244">
+        <v>1522837337</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="16" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H245" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I245" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J245">
+        <v>2079115000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="16" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I246" s="11" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J246">
+        <v>441761411755</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="18" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I247" s="11" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J247">
+        <v>1334462700</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="16" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J248">
+        <v>8700100600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="16" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J249">
+        <v>1413307033</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="16" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I250" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J250">
+        <v>1273678999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="16" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I251" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J251">
+        <v>441904321350</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="16" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I252" s="11" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J252">
+        <v>1225383800</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="16" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H253" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I253" s="11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J253">
+        <v>1158468722</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="16" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J254">
+        <v>1292611809</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="16" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D255" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I255" s="10" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J255">
+        <v>1392263568</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="16" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D256" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J256">
+        <v>1792513008</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D257" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J257">
+        <v>441760722283</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D259" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J259">
+        <v>1612956303</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D260" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I260" s="4"/>
+      <c r="J260">
+        <v>442032860210</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D261" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J261">
+        <v>447973108519</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D262" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D263" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J263">
+        <v>1179259522</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J264">
+        <v>1179259522</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="16" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D265" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J265">
+        <v>1179259522</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D266" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H266" s="12" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D267" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J267">
+        <v>1268833978</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D268" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>1896</v>
       </c>
     </row>
   </sheetData>
@@ -7889,6 +13033,11 @@
     <hyperlink ref="B151" r:id="rId100" xr:uid="{C6DE36A6-9F10-4679-8078-E74F125E34C8}"/>
     <hyperlink ref="B153" r:id="rId101" xr:uid="{C8F9F70B-41F0-4CA6-A2FF-ABC6F03D85BB}"/>
     <hyperlink ref="C153" r:id="rId102" xr:uid="{75B6FB17-90F4-4A35-A91E-0B6BA9B9BDEE}"/>
+    <hyperlink ref="B156" r:id="rId103" xr:uid="{D2CF21D3-25D6-4616-8F19-AC8DE9DC15BA}"/>
+    <hyperlink ref="C161" r:id="rId104" xr:uid="{DD83009B-2755-4A80-A559-CDCAA0D7FC64}"/>
+    <hyperlink ref="C174" r:id="rId105" xr:uid="{068F8209-6680-4A1F-9273-6AA7FE8C10FF}"/>
+    <hyperlink ref="C256" r:id="rId106" xr:uid="{A3D027C1-7AD4-48CF-B9A4-0FB475AAA377}"/>
+    <hyperlink ref="B257" r:id="rId107" xr:uid="{9E01C16C-5199-4ABE-AC13-53EB50E7A991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7896,10 +13045,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="A35" sqref="A35:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8715,6 +13864,401 @@
       </c>
       <c r="K34" s="1" t="s">
         <v>1113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="K35" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J36">
+        <v>4407840554087</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -8756,18 +14300,19 @@
     <hyperlink ref="C33" r:id="rId35" xr:uid="{4758B94A-70FC-4154-8EC6-8A9BB44E7AFB}"/>
     <hyperlink ref="C34" r:id="rId36" xr:uid="{5CE95A72-9E37-4A07-B5C0-10E5E7F25305}"/>
     <hyperlink ref="K34" r:id="rId37" xr:uid="{92AB23C2-C3BD-436A-8363-19A5764FE689}"/>
+    <hyperlink ref="K35" r:id="rId38" xr:uid="{59172E21-A723-48DF-BDB5-857E367799C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6720E4D-9D5E-4E29-A3B7-B145B88A400E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8801,6 +14346,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8808,10 +14433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D386E-CBEC-4FB1-9297-C88EC9A93379}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8863,6 +14488,132 @@
       </c>
       <c r="F2" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -8876,10 +14627,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D679B3A-6FF4-4113-9593-1BFF859C82FF}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9308,6 +15059,26 @@
       </c>
       <c r="J16">
         <v>4535323936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -9420,10 +15191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988ACEB1-FA3D-4126-B542-EE42033E74EA}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9475,6 +15246,29 @@
       </c>
       <c r="G2" t="s">
         <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -9488,10 +15282,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4ED0D-F936-4DD5-9947-764A260F3F05}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9798,6 +15592,46 @@
       </c>
       <c r="I14">
         <v>41582363636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -9823,10 +15657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A6A3AF-62F5-4C78-98DC-37EEC5A78B58}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9980,12 +15814,391 @@
         <v>835</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J23">
+        <v>7005963770</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>1252</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{14D8B3F7-CEA0-41AA-AB69-605E9A9C4B04}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{5BBB2BFA-DC1E-4544-AD65-4372E9586E52}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{89ED6364-F516-492B-AA3A-267B7F068002}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{C8137EE8-DB34-4867-B40B-0E72B267BA78}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{32491027-009C-43D5-BCEB-4737C39EEA40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9993,10 +16206,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF7842E-30DE-4CF5-9B0E-49CE2A73BCB7}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+      <selection activeCell="B10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10213,6 +16426,69 @@
       </c>
       <c r="H9" s="2" t="s">
         <v>1107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/EmailBlast/Excel/Continent/Europe.xlsx
+++ b/EmailBlast/Excel/Continent/Europe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D80E0-910A-4559-92AE-3C9088A045F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361335BB-4D7A-43BC-8B66-B27EB54D3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1245" windowWidth="10200" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="11010" yWindow="30" windowWidth="5340" windowHeight="5430" firstSheet="9" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="1846">
   <si>
     <t>Name</t>
   </si>
@@ -1805,24 +1805,6 @@
     <t>Bat M1, Cité Scientifique, 59655 Villeneuve d'Ascq</t>
   </si>
   <si>
-    <t>Radio Campus Paris</t>
-  </si>
-  <si>
-    <t>nomdelemission@radiocampusparis.org</t>
-  </si>
-  <si>
-    <t>https://www.radiocampusparis.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facebook.com/radiocampusparis </t>
-  </si>
-  <si>
-    <t>campusparis</t>
-  </si>
-  <si>
-    <t>50, rue des Tournelles, 75 003 Paris</t>
-  </si>
-  <si>
     <t>Radio Dio</t>
   </si>
   <si>
@@ -2201,18 +2183,6 @@
     <t>061315773</t>
   </si>
   <si>
-    <t>Phantom FM</t>
-  </si>
-  <si>
-    <t>info@phantom.ie</t>
-  </si>
-  <si>
-    <t>http://www.phantomfm.com</t>
-  </si>
-  <si>
-    <t>3530656828888</t>
-  </si>
-  <si>
     <t>http://phoenixfm.ie</t>
   </si>
   <si>
@@ -2564,18 +2534,6 @@
     <t>instagram.com/salotto.musicale</t>
   </si>
   <si>
-    <t>BIBLIOMUSIQUE</t>
-  </si>
-  <si>
-    <t>staff.biblomusique@gmail.com</t>
-  </si>
-  <si>
-    <t>https://bibliomusique.wixsite.com/home</t>
-  </si>
-  <si>
-    <t>facebook.com/biblomusique</t>
-  </si>
-  <si>
     <t>Radio ARA</t>
   </si>
   <si>
@@ -2849,27 +2807,6 @@
     <t>https://www.dopefuture.com</t>
   </si>
   <si>
-    <t>Swine Daily</t>
-  </si>
-  <si>
-    <t>kirstof@swinedaily.com</t>
-  </si>
-  <si>
-    <t>https://swinedaily.com</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>facebook.com/swinedailyblog</t>
-  </si>
-  <si>
-    <t>SWINEDAILY</t>
-  </si>
-  <si>
-    <t>Lietavská Svinná 220, Lietavská Svinná-Babkov</t>
-  </si>
-  <si>
     <t>Radio Student Ljubjana</t>
   </si>
   <si>
@@ -2948,18 +2885,6 @@
     <t>https://www.submithub.com/blog/somos-grandes</t>
   </si>
   <si>
-    <t>After Musiic</t>
-  </si>
-  <si>
-    <t>vsanchez.aftermusic@gmail.com</t>
-  </si>
-  <si>
-    <t>https://aftermusiic.blogspot.com</t>
-  </si>
-  <si>
-    <t>After_Musiic</t>
-  </si>
-  <si>
     <t>Bloodbuzzed</t>
   </si>
   <si>
@@ -2987,18 +2912,6 @@
     <t>facebook.com/Jenesaispop</t>
   </si>
   <si>
-    <t>LONGBRIT Magazine</t>
-  </si>
-  <si>
-    <t>longbrit@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.long-brit.com</t>
-  </si>
-  <si>
-    <t>LONGBRIT</t>
-  </si>
-  <si>
     <t>Mindies</t>
   </si>
   <si>
@@ -3101,18 +3014,6 @@
     <t>Granlundswagen 17, Norrkoping 60591</t>
   </si>
   <si>
-    <t>RockFarbror</t>
-  </si>
-  <si>
-    <t>thomas@rockfarror.se</t>
-  </si>
-  <si>
-    <t>https://rockfarbror.se</t>
-  </si>
-  <si>
-    <t>facebook.com/rockfarbror</t>
-  </si>
-  <si>
     <t>K103</t>
   </si>
   <si>
@@ -3464,18 +3365,6 @@
     <t>https://www.facebook.com/KUBEkeele</t>
   </si>
   <si>
-    <t>god bless the BANDS</t>
-  </si>
-  <si>
-    <t>lucy@godblessthebands.com</t>
-  </si>
-  <si>
-    <t>http://godblessthebands.com</t>
-  </si>
-  <si>
-    <t>gbthebandsblog</t>
-  </si>
-  <si>
     <t>GoldFlakePaint</t>
   </si>
   <si>
@@ -4100,9 +3989,6 @@
     <t>https://www.submithub.com/blog/channel-wavey</t>
   </si>
   <si>
-    <t>27 Leggies</t>
-  </si>
-  <si>
     <t>leggies27@hotmail.co.uk</t>
   </si>
   <si>
@@ -4658,18 +4544,6 @@
     <t>instagram.com/sprucedupreviews</t>
   </si>
   <si>
-    <t>Stamp The Wax</t>
-  </si>
-  <si>
-    <t>info@stampthewax.com</t>
-  </si>
-  <si>
-    <t>https://www.stampthewax.com</t>
-  </si>
-  <si>
-    <t>facebook.com/stampthewax</t>
-  </si>
-  <si>
     <t>Teases and Dares</t>
   </si>
   <si>
@@ -5256,18 +5130,6 @@
   </si>
   <si>
     <t xml:space="preserve">D Mill, Dean Clough Mills, Halifax, West Yorkshire, HX3 5AX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURE FM </t>
-  </si>
-  <si>
-    <t>hello@purefm.com</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PureFM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Ctr. Cambridge Rd. Portsmouth, Hampshire PO1 2EF </t>
   </si>
   <si>
     <t xml:space="preserve">Purple Radio </t>
@@ -5610,24 +5472,6 @@
     <t>https://www.radiogetswild.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Shock Radio </t>
-  </si>
-  <si>
-    <t>info@shockradio.co.uk</t>
-  </si>
-  <si>
-    <t>https://shockradio.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facebook.com/shockradio </t>
-  </si>
-  <si>
-    <t>ShockRadio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University House, The Crescent, Salford, Manchester, M5 4WT </t>
-  </si>
-  <si>
     <t>Skunk Radio Live</t>
   </si>
   <si>
@@ -5749,6 +5593,9 @@
   </si>
   <si>
     <t>musik@fro.at</t>
+  </si>
+  <si>
+    <t>wake and Listen</t>
   </si>
 </sst>
 </file>
@@ -6257,10 +6104,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:XFD268"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,11 +8095,11 @@
       <c r="G76" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="5" t="s">
         <v>587</v>
       </c>
       <c r="J76">
-        <v>149966545</v>
+        <v>477438895</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -8271,24 +8118,24 @@
       <c r="E77" t="s">
         <v>466</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="4" t="s">
         <v>593</v>
       </c>
       <c r="J77">
-        <v>477438895</v>
+        <v>330388600915</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -8300,28 +8147,22 @@
       <c r="E78" t="s">
         <v>466</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="I78" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="J78">
-        <v>330388600915</v>
+        <v>495049515</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -8329,22 +8170,25 @@
       <c r="E79" t="s">
         <v>466</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="I79" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J79">
-        <v>495049515</v>
+        <v>235120092</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -8352,25 +8196,25 @@
       <c r="E80" t="s">
         <v>466</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="J80">
-        <v>235120092</v>
+        <v>320541211</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -8378,14 +8222,17 @@
       <c r="E81" t="s">
         <v>466</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>612</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>613</v>
       </c>
       <c r="J81">
-        <v>320541211</v>
+        <v>478218349</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -8395,7 +8242,7 @@
       <c r="B82" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>616</v>
       </c>
       <c r="D82" t="s">
@@ -8410,18 +8257,18 @@
       <c r="G82" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="5" t="s">
         <v>619</v>
       </c>
       <c r="J82">
-        <v>478218349</v>
+        <v>330326023376</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -8443,18 +8290,15 @@
         <v>625</v>
       </c>
       <c r="J83">
-        <v>330326023376</v>
+        <v>549883304</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -8462,25 +8306,25 @@
       <c r="E84" t="s">
         <v>466</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="J84">
+        <v>231946666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="J84">
-        <v>549883304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -8488,25 +8332,28 @@
       <c r="E85" t="s">
         <v>466</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="J85">
+        <v>456528520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="I85" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="J85">
-        <v>231946666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>637</v>
+      <c r="C86" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -8515,13 +8362,13 @@
         <v>466</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>576</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J86">
         <v>456528520</v>
@@ -8529,13 +8376,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>636</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
@@ -8543,25 +8387,25 @@
       <c r="E87" t="s">
         <v>466</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="J87">
-        <v>456528520</v>
+        <v>247510383</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -8569,69 +8413,72 @@
       <c r="E88" t="s">
         <v>466</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>644</v>
+      <c r="F88" t="s">
+        <v>563</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J88">
-        <v>247510383</v>
+        <v>473140158</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>645</v>
+      <c r="A89" t="s">
+        <v>661</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>466</v>
+        <v>657</v>
       </c>
       <c r="F89" t="s">
-        <v>563</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>565</v>
+        <v>664</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="J89">
-        <v>473140158</v>
+        <v>3614768491</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
         <v>668</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" t="s">
-        <v>663</v>
-      </c>
       <c r="F90" t="s">
-        <v>670</v>
+        <v>679</v>
+      </c>
+      <c r="G90" t="s">
+        <v>680</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="J90">
-        <v>3614768491</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8671190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>682</v>
       </c>
@@ -8645,7 +8492,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F91" t="s">
         <v>685</v>
@@ -8653,14 +8500,14 @@
       <c r="G91" t="s">
         <v>686</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="3" t="s">
         <v>687</v>
       </c>
       <c r="J91">
-        <v>8671190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8227222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>688</v>
       </c>
@@ -8674,7 +8521,7 @@
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F92" t="s">
         <v>691</v>
@@ -8682,11 +8529,11 @@
       <c r="G92" t="s">
         <v>692</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" t="s">
         <v>693</v>
       </c>
       <c r="J92">
-        <v>8227222</v>
+        <v>353012083111</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -8703,7 +8550,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F93" t="s">
         <v>697</v>
@@ -8713,153 +8560,151 @@
       </c>
       <c r="I93" t="s">
         <v>699</v>
-      </c>
-      <c r="J93">
-        <v>353012083111</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>700</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>701</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>702</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>674</v>
-      </c>
-      <c r="F94" t="s">
+        <v>668</v>
+      </c>
+      <c r="J94" t="s">
         <v>703</v>
-      </c>
-      <c r="G94" t="s">
-        <v>704</v>
-      </c>
-      <c r="I94" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>704</v>
+      </c>
+      <c r="B95" t="s">
+        <v>705</v>
+      </c>
+      <c r="C95" t="s">
         <v>706</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>668</v>
+      </c>
+      <c r="J95" t="s">
         <v>707</v>
-      </c>
-      <c r="C95" t="s">
-        <v>708</v>
-      </c>
-      <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" t="s">
-        <v>674</v>
-      </c>
-      <c r="J95" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="B96" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="C96" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J96" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B97" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="C97" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J97" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B98" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C98" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>674</v>
-      </c>
-      <c r="J98" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>720</v>
-      </c>
-      <c r="B99" t="s">
-        <v>695</v>
-      </c>
-      <c r="C99" t="s">
-        <v>721</v>
+        <v>736</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>674</v>
-      </c>
-      <c r="J99" t="s">
-        <v>722</v>
+        <v>728</v>
+      </c>
+      <c r="F99" t="s">
+        <v>739</v>
+      </c>
+      <c r="G99" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>700</v>
-      </c>
-      <c r="B100" t="s">
-        <v>701</v>
-      </c>
-      <c r="C100" t="s">
-        <v>723</v>
+        <v>741</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>674</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="F100" t="s">
+        <v>744</v>
+      </c>
+      <c r="G100" t="s">
+        <v>745</v>
+      </c>
+      <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -8875,7 +8720,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F101" t="s">
         <v>749</v>
@@ -8898,54 +8743,53 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>738</v>
-      </c>
-      <c r="F102" t="s">
+        <v>728</v>
+      </c>
+      <c r="G102" t="s">
         <v>754</v>
       </c>
-      <c r="G102" t="s">
-        <v>755</v>
-      </c>
-      <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>755</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>728</v>
+      </c>
+      <c r="F103" t="s">
         <v>758</v>
       </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s">
-        <v>738</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>759</v>
-      </c>
-      <c r="G103" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>760</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>728</v>
+      </c>
+      <c r="F104" t="s">
         <v>763</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" t="s">
-        <v>738</v>
       </c>
       <c r="G104" t="s">
         <v>764</v>
@@ -8955,22 +8799,22 @@
       <c r="A105" t="s">
         <v>765</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>767</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>738</v>
-      </c>
-      <c r="F105" t="s">
+        <v>728</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -8978,17 +8822,17 @@
       <c r="A106" t="s">
         <v>770</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="1" t="s">
         <v>772</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F106" t="s">
         <v>773</v>
@@ -9001,7 +8845,7 @@
       <c r="A107" t="s">
         <v>775</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="1" t="s">
         <v>776</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -9011,215 +8855,221 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="7" t="s">
         <v>779</v>
       </c>
+      <c r="I107" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="J107">
+        <v>121954194</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>780</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="A108" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>782</v>
       </c>
+      <c r="C108" s="5" t="s">
+        <v>783</v>
+      </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F108" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G108" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="I108" t="s">
+        <v>786</v>
+      </c>
+      <c r="J108">
+        <v>6491750</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>785</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J109">
-        <v>121954194</v>
+        <v>3045670</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="A110" t="s">
         <v>793</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>795</v>
+      </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>738</v>
-      </c>
-      <c r="F110" t="s">
-        <v>794</v>
-      </c>
-      <c r="G110" t="s">
-        <v>795</v>
-      </c>
-      <c r="I110" t="s">
+        <v>728</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="J110">
-        <v>6491750</v>
+      <c r="I110" s="4" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>797</v>
+      <c r="A111" s="8" t="s">
+        <v>798</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="H111" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="G111" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="J111">
-        <v>3045670</v>
-      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="9" t="s">
         <v>805</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="G112" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>810</v>
+      <c r="A113" t="s">
+        <v>825</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>738</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>812</v>
+        <v>828</v>
+      </c>
+      <c r="F113" t="s">
+        <v>829</v>
+      </c>
+      <c r="I113" t="s">
+        <v>830</v>
+      </c>
+      <c r="J113">
+        <v>352222289</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>815</v>
+      <c r="A114" t="s">
+        <v>831</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>738</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="G114" t="s">
-        <v>817</v>
+        <v>828</v>
+      </c>
+      <c r="F114" t="s">
+        <v>829</v>
+      </c>
+      <c r="I114" t="s">
+        <v>830</v>
+      </c>
+      <c r="J114">
+        <v>352222289</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="F115" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="I115" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="J115">
         <v>352222289</v>
@@ -9227,158 +9077,152 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F116" t="s">
-        <v>843</v>
-      </c>
-      <c r="I116" t="s">
-        <v>844</v>
-      </c>
-      <c r="J116">
-        <v>352222289</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F117" t="s">
         <v>843</v>
       </c>
+      <c r="H117" t="s">
+        <v>844</v>
+      </c>
       <c r="I117" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J117">
-        <v>352222289</v>
+        <v>4722857000</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>846</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>838</v>
+      </c>
+      <c r="F118" t="s">
         <v>849</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="H118" t="s">
         <v>850</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="I118" s="4" t="s">
         <v>851</v>
-      </c>
-      <c r="D118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" t="s">
-        <v>852</v>
-      </c>
-      <c r="F118" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>852</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>838</v>
+      </c>
+      <c r="F119" t="s">
         <v>855</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="H119" t="s">
         <v>856</v>
       </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" t="s">
-        <v>852</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="I119" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="H119" t="s">
-        <v>858</v>
-      </c>
-      <c r="I119" t="s">
-        <v>859</v>
-      </c>
       <c r="J119">
-        <v>4722857000</v>
+        <v>4741488274</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>858</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>838</v>
+      </c>
+      <c r="F120" t="s">
+        <v>859</v>
+      </c>
+      <c r="I120" t="s">
         <v>860</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" t="s">
-        <v>852</v>
-      </c>
-      <c r="F120" t="s">
-        <v>863</v>
-      </c>
-      <c r="H120" t="s">
-        <v>864</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>865</v>
+      <c r="J120">
+        <v>4722857000</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="F121" t="s">
-        <v>869</v>
-      </c>
-      <c r="H121" t="s">
         <v>870</v>
       </c>
-      <c r="I121" s="4" t="s">
+      <c r="G121" t="s">
         <v>871</v>
-      </c>
-      <c r="J121">
-        <v>4741488274</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -9386,270 +9230,267 @@
         <v>872</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>855</v>
+        <v>873</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="F122" t="s">
-        <v>873</v>
-      </c>
-      <c r="I122" t="s">
-        <v>874</v>
-      </c>
-      <c r="J122">
-        <v>4722857000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>877</v>
-      </c>
-      <c r="F123" t="s">
-        <v>884</v>
-      </c>
-      <c r="G123" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="F124" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="J124">
+        <v>351253200637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="F126" t="s">
-        <v>918</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="G126" t="s">
+        <v>921</v>
+      </c>
+      <c r="I126" t="s">
+        <v>922</v>
       </c>
       <c r="J126">
-        <v>351253200637</v>
+        <v>38612428800</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>922</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="F127" t="s">
+        <v>945</v>
+      </c>
+      <c r="G127" t="s">
+        <v>946</v>
+      </c>
+      <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F128" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="G128" t="s">
-        <v>935</v>
-      </c>
-      <c r="I128" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="F129" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
       <c r="G129" t="s">
-        <v>942</v>
-      </c>
-      <c r="I129" t="s">
-        <v>943</v>
-      </c>
-      <c r="J129">
-        <v>38612428800</v>
+        <v>955</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>946</v>
+        <v>925</v>
+      </c>
+      <c r="F130" t="s">
+        <v>959</v>
       </c>
       <c r="G130" t="s">
-        <v>966</v>
-      </c>
-      <c r="J130">
-        <v>34679277631</v>
+        <v>960</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F131" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G131" t="s">
-        <v>971</v>
-      </c>
-      <c r="I131" s="3"/>
+        <v>965</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>972</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>974</v>
+        <v>966</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>968</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F132" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G132" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="G133" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -9666,12 +9507,15 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="F134" t="s">
         <v>983</v>
       </c>
       <c r="G134" t="s">
+        <v>980</v>
+      </c>
+      <c r="I134" t="s">
         <v>984</v>
       </c>
     </row>
@@ -9689,7 +9533,7 @@
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="F135" t="s">
         <v>988</v>
@@ -9697,2334 +9541,2376 @@
       <c r="G135" t="s">
         <v>989</v>
       </c>
+      <c r="I135" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="J135">
+        <v>31182257</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="F136" t="s">
-        <v>993</v>
-      </c>
-      <c r="G136" t="s">
         <v>994</v>
+      </c>
+      <c r="I136" t="s">
+        <v>995</v>
+      </c>
+      <c r="J136">
+        <v>4646146000</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>995</v>
-      </c>
-      <c r="B137" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="1" t="s">
         <v>997</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>998</v>
+      </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="F137" t="s">
-        <v>998</v>
-      </c>
-      <c r="G137" t="s">
         <v>999</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B138" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="B138" s="5" t="s">
         <v>1002</v>
       </c>
+      <c r="C138" s="5" t="s">
+        <v>1003</v>
+      </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>946</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1003</v>
+        <v>1004</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J138">
+        <v>41417612644</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F139" t="s">
         <v>1010</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="H139" t="s">
         <v>1011</v>
       </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="I139" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="G139" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I139" t="s">
-        <v>1013</v>
+      <c r="J139">
+        <v>410215505550</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F140" t="s">
         <v>1016</v>
       </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>1017</v>
       </c>
+      <c r="I140" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J140">
+        <v>313309995</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1020</v>
+      <c r="A141" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1041</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J141">
-        <v>31182257</v>
+        <v>1042</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>1026</v>
+      <c r="A142" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J142">
-        <v>4646146000</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1031</v>
+      <c r="A143" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>1052</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1032</v>
+        <v>1042</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="I143" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1034</v>
+      <c r="A144" s="8" t="s">
+        <v>1056</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J144">
-        <v>41417612644</v>
+        <v>1042</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>1041</v>
+        <v>1061</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>1062</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
         <v>1042</v>
       </c>
-      <c r="D145" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1044</v>
+      <c r="F145" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J145">
-        <v>410215505550</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1048</v>
+      <c r="A146" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>1068</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G146" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I146" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J146">
-        <v>313309995</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>1074</v>
+      <c r="A147" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1082</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F147" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>1077</v>
+      <c r="F147" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1079</v>
+        <v>1845</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1080</v>
+        <v>1311</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I148" s="3"/>
+        <v>1088</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>1083</v>
+      <c r="A149" s="6" t="s">
+        <v>1312</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1084</v>
+        <v>1313</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1085</v>
+        <v>1314</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1088</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>1090</v>
+      <c r="A150" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>1319</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1091</v>
+        <v>1320</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>1093</v>
+        <v>1088</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>1095</v>
+      <c r="A151" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1323</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1096</v>
+        <v>1324</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>1099</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>1101</v>
+      <c r="A152" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1328</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K152" s="1"/>
+        <v>1088</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1115</v>
+      <c r="A153" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>1333</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1117</v>
+        <v>1088</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G156" s="12" t="s">
         <v>1347</v>
       </c>
-      <c r="B154" s="4" t="s">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
         <v>1348</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="B157" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="C157" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F157" s="14" t="s">
         <v>1351</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>1363</v>
+      <c r="G157" s="12" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>1366</v>
+        <v>1353</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>1354</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>1368</v>
+        <v>1088</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>1370</v>
+        <v>1357</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>1358</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>1372</v>
+        <v>1088</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>1374</v>
+        <v>1361</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>1362</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>1376</v>
+        <v>1088</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>1379</v>
+        <v>1366</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1368</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>1374</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>1388</v>
+        <v>1376</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>1378</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>1389</v>
+        <v>1088</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>1386</v>
+        <v>1379</v>
+      </c>
+      <c r="J163">
+        <v>447729073826</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>1392</v>
+        <v>1380</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>1382</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H164" s="14" t="s">
-        <v>1394</v>
+        <v>1383</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>1396</v>
+        <v>1385</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1386</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1398</v>
+        <v>1388</v>
+      </c>
+      <c r="J165">
+        <v>441517079044</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G166" s="12" t="s">
-        <v>1402</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>1403</v>
+        <v>1088</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G167" s="12" t="s">
-        <v>1408</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>1411</v>
+        <v>1397</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>1398</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>1416</v>
+        <v>1401</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>1403</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G169" s="12" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J169">
-        <v>447729073826</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>1419</v>
+        <v>1404</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>1405</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G170" s="12" t="s">
-        <v>1422</v>
+        <v>1088</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>1424</v>
+        <v>1409</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>1410</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J171">
-        <v>441517079044</v>
+        <v>1088</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H172" s="12" t="s">
-        <v>1430</v>
+        <v>1088</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>1432</v>
+        <v>1418</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>1419</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
       </c>
       <c r="E173" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>1436</v>
+        <v>1423</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>1424</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F174" s="12" t="s">
-        <v>1437</v>
+        <v>1088</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>1425</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>1438</v>
+        <v>1426</v>
+      </c>
+      <c r="H174" s="12"/>
+      <c r="J174">
+        <v>7974078605</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>1440</v>
+        <v>1427</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>1428</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>1443</v>
+        <v>1432</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>1433</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>1445</v>
-      </c>
-      <c r="H176" s="12" t="s">
-        <v>1446</v>
+        <v>1088</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>1450</v>
+        <v>1088</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>1454</v>
+        <v>1440</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>1442</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>1443</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>1457</v>
+        <v>1445</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>1446</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>1459</v>
+        <v>1088</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>1461</v>
+        <v>1450</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>1451</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>1463</v>
+        <v>1088</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>1453</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H180" s="12"/>
-      <c r="J180">
-        <v>7974078605</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>1466</v>
+        <v>1455</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>1456</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G181" s="12" t="s">
-        <v>1469</v>
+        <v>1088</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>1471</v>
+        <v>1460</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>1461</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>1463</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>1480</v>
+        <v>1470</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>1471</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>1481</v>
+        <v>1088</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>1489</v>
+        <v>1478</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>1479</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F186" s="12" t="s">
-        <v>1491</v>
+        <v>1088</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>1481</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>1495</v>
+        <v>1483</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>1485</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H187" s="14" t="s">
-        <v>1497</v>
+        <v>1088</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J187">
+        <v>2082231224</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>1499</v>
+        <v>1487</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>1488</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>1501</v>
+        <v>1088</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>1504</v>
+        <v>1491</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>1492</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G189" s="12" t="s">
-        <v>1506</v>
+        <v>1088</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>1512</v>
+        <v>1499</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>1500</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G191" s="12" t="s">
-        <v>1515</v>
+        <v>1502</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G192" s="12" t="s">
-        <v>1520</v>
+        <v>1507</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>1523</v>
+        <v>1509</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>1511</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I193" s="11" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J193">
-        <v>2082231224</v>
+        <v>1088</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>1526</v>
+        <v>1514</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>1515</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H195" s="14" t="s">
-        <v>1532</v>
+        <v>1088</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>1534</v>
+        <v>1523</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>1524</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>1536</v>
+        <v>1526</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J196">
+        <v>447954723104</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G197" s="12" t="s">
-        <v>1540</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
-        <v>1541</v>
+      <c r="A198" s="16" t="s">
+        <v>1531</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G198" s="14" t="s">
-        <v>1545</v>
+        <v>1534</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
         <v>1546</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B201" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C201" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="D199" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F199" s="14" t="s">
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="G199" s="14" t="s">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+      <c r="B202" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="C202" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="D200" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F200" s="14" t="s">
+      <c r="H202" s="2" t="s">
         <v>1554</v>
-      </c>
-      <c r="G200" s="12" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D201" t="s">
-        <v>15</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G201" s="12" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="13" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D202" t="s">
-        <v>15</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F202" s="12" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G202" s="14" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="C205" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I205" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="D203" t="s">
-        <v>15</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F203" s="14" t="s">
+      <c r="J205">
+        <v>1453759475</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="G203" s="14" t="s">
+      <c r="B206" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="J203">
-        <v>447954723104</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
+      <c r="C206" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="G206" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="D204" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="16" t="s">
+      <c r="I206" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D205" t="s">
-        <v>15</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>1576</v>
-      </c>
-      <c r="G205" s="12" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D206" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F206" s="14" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G206" s="12" t="s">
-        <v>1582</v>
+      <c r="J206">
+        <v>4402077385454</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>1584</v>
+        <v>1574</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1575</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
       </c>
       <c r="E207" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>1587</v>
+        <v>1088</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J207">
+        <v>1612486888</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>1589</v>
+        <v>1580</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1581</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>1591</v>
+        <v>1088</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I209" s="4"/>
+      <c r="J209">
+        <v>4407895669929</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>1592</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="C210" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="D209" t="s">
-        <v>15</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F209" s="2" t="s">
+      <c r="G210" s="2" t="s">
         <v>1595</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D210" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F210" s="12" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H210" s="14" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>1605</v>
+        <v>1088</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J211">
+        <v>1642688104</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D212" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="I212" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="C212" s="5" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D212" t="s">
-        <v>15</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>1609</v>
-      </c>
       <c r="J212">
-        <v>1453759475</v>
+        <v>1603250056</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="G213" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="D213" t="s">
-        <v>15</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F213" s="2" t="s">
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
         <v>1613</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="B214" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="I213" s="4" t="s">
+      <c r="C214" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="J213">
-        <v>4402077385454</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="I214" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D214" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I214" s="5" t="s">
-        <v>1621</v>
-      </c>
       <c r="J214">
-        <v>1612486888</v>
+        <v>8700100600</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="I215" s="4" t="s">
         <v>1623</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D215" t="s">
-        <v>15</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I215" s="5" t="s">
-        <v>1627</v>
+      <c r="J215">
+        <v>1530460992</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="I216" s="5" t="s">
         <v>1629</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D216" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I216" s="4"/>
       <c r="J216">
-        <v>4407895669929</v>
+        <v>1858464666</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="G217" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="D217" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F217" s="2" t="s">
+      <c r="B218" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="C218" s="5" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="I218" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D218" t="s">
-        <v>15</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>1643</v>
-      </c>
       <c r="J218">
-        <v>1642688104</v>
+        <v>1473230716</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="I219" s="4" t="s">
         <v>1645</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="J219">
+        <v>44185170333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
         <v>1646</v>
       </c>
-      <c r="D219" t="s">
-        <v>15</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F219" s="2" t="s">
+      <c r="B220" s="5" t="s">
         <v>1647</v>
       </c>
-      <c r="G219" s="2" t="s">
+      <c r="C220" s="5" t="s">
         <v>1648</v>
       </c>
-      <c r="I219" s="5" t="s">
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="J219">
-        <v>1603250056</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="G220" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I220" s="4"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
         <v>1655</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B222" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="D221" t="s">
-        <v>15</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F221" s="2" t="s">
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="I221" s="5" t="s">
+      <c r="G222" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="J221">
-        <v>8700100600</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B223" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="D222" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F222" s="2" t="s">
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="G222" s="2" t="s">
+      <c r="G223" s="7" t="s">
         <v>1664</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J222">
-        <v>1530460992</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D223" t="s">
-        <v>15</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I223" s="5" t="s">
-        <v>1671</v>
-      </c>
-      <c r="J223">
-        <v>1858464666</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>1673</v>
+        <v>1665</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1666</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>1675</v>
+        <v>1088</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I224" s="4"/>
+        <v>1668</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J224">
+        <v>8700100600</v>
+      </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>1678</v>
+        <v>1669</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1670</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>1121</v>
+        <v>1088</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>1672</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1681</v>
+        <v>1673</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>1674</v>
       </c>
       <c r="J225">
-        <v>1473230716</v>
+        <v>441761411755</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>1686</v>
+        <v>1088</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>1679</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="J226">
-        <v>44185170333</v>
+        <v>1224294860</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J227">
+        <v>1865288452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C228" s="10" t="s">
         <v>1688</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F228" s="14" t="s">
         <v>1689</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="I228" s="10" t="s">
         <v>1690</v>
       </c>
-      <c r="D227" t="s">
-        <v>15</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F227" s="2" t="s">
+      <c r="J228">
+        <v>1422365923</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="16" t="s">
         <v>1691</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="B229" s="11" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
+      <c r="C229" s="10" t="s">
         <v>1693</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F229" s="12" t="s">
         <v>1694</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="G229" s="12" t="s">
         <v>1695</v>
       </c>
-      <c r="D228" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F228" s="2" t="s">
+      <c r="I229" s="10" t="s">
         <v>1696</v>
       </c>
-      <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
+      <c r="J229">
+        <v>1916455100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="16" t="s">
         <v>1697</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B230" s="10" t="s">
         <v>1698</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C230" s="11" t="s">
         <v>1699</v>
       </c>
-      <c r="D229" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F229" s="2" t="s">
+      <c r="D230" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G230" s="12" t="s">
         <v>1700</v>
       </c>
-      <c r="G229" s="2" t="s">
+      <c r="I230" s="11" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
+      <c r="J230">
+        <v>2890971065</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="13" t="s">
         <v>1702</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B231" s="11" t="s">
         <v>1703</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C231" s="11" t="s">
         <v>1704</v>
       </c>
-      <c r="D230" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F230" s="2" t="s">
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F231" s="12" t="s">
         <v>1705</v>
       </c>
-      <c r="G230" s="7" t="s">
+      <c r="G231" s="12" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
+      <c r="I231" s="11" t="s">
         <v>1707</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="J231">
+        <v>4401478611796</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="16" t="s">
         <v>1708</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="B232" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="D231" t="s">
-        <v>15</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G231" s="2" t="s">
+      <c r="C232" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="I231" s="5" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J231">
-        <v>8700100600</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F232" s="12" t="s">
         <v>1711</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="G232" s="12" t="s">
         <v>1712</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="I232" s="11" t="s">
         <v>1713</v>
       </c>
-      <c r="D232" t="s">
-        <v>15</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F232" s="7" t="s">
+      <c r="J232">
+        <v>2476573077</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
         <v>1714</v>
       </c>
-      <c r="G232" s="2" t="s">
+      <c r="B233" s="10" t="s">
         <v>1715</v>
       </c>
-      <c r="I232" s="5" t="s">
+      <c r="C233" s="10" t="s">
         <v>1716</v>
       </c>
-      <c r="J232">
-        <v>441761411755</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F233" s="12" t="s">
         <v>1717</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="G233" s="12" t="s">
         <v>1718</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="I233" s="10" t="s">
         <v>1719</v>
       </c>
-      <c r="D233" t="s">
-        <v>15</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F233" s="7" t="s">
+      <c r="J233">
+        <v>1932874433</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="16" t="s">
         <v>1720</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="B234" s="10" t="s">
         <v>1721</v>
       </c>
-      <c r="I233" s="4" t="s">
+      <c r="C234" s="11" t="s">
         <v>1722</v>
       </c>
-      <c r="J233">
-        <v>1224294860</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F234" s="12" t="s">
         <v>1723</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="H234" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="I234" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="D234" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G234" s="2" t="s">
+      <c r="J234">
+        <v>4402076792509</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="16" t="s">
         <v>1726</v>
       </c>
-      <c r="I234" s="4" t="s">
-        <v>1727</v>
-      </c>
-      <c r="J234">
-        <v>1865288452</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="13" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>1729</v>
+      <c r="B235" s="11" t="s">
+        <v>1687</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>1730</v>
+        <v>1688</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
       </c>
       <c r="E235" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>1731</v>
+        <v>1088</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>1689</v>
       </c>
       <c r="I235" s="10" t="s">
-        <v>1732</v>
+        <v>1690</v>
       </c>
       <c r="J235">
         <v>1422365923</v>
@@ -12032,901 +11918,651 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C236" s="9"/>
+        <v>1728</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>1729</v>
+      </c>
       <c r="D236" t="s">
         <v>15</v>
       </c>
       <c r="E236" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I236" s="10" t="s">
-        <v>1736</v>
+        <v>1088</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I236" s="11" t="s">
+        <v>1731</v>
       </c>
       <c r="J236">
-        <v>2392843848</v>
+        <v>1522837337</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H237" s="12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I237" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D237" t="s">
-        <v>15</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F237" s="12" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G237" s="12" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I237" s="10" t="s">
-        <v>1742</v>
-      </c>
       <c r="J237">
-        <v>1916455100</v>
+        <v>2079115000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I238" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J238">
+        <v>441761411755</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C239" s="10" t="s">
         <v>1743</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F239" s="12" t="s">
         <v>1744</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="G239" s="12" t="s">
         <v>1745</v>
       </c>
-      <c r="D238" t="s">
-        <v>15</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G238" s="12" t="s">
+      <c r="I239" s="11" t="s">
         <v>1746</v>
       </c>
-      <c r="I238" s="11" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J238">
-        <v>2890971065</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D239" t="s">
-        <v>15</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G239" s="12" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I239" s="11" t="s">
-        <v>1753</v>
-      </c>
       <c r="J239">
-        <v>4401478611796</v>
+        <v>1334462700</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I240" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J240">
+        <v>8700100600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="16" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G241" s="14" t="s">
         <v>1754</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="H241" s="12" t="s">
         <v>1755</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="I241" s="10" t="s">
         <v>1756</v>
       </c>
-      <c r="D240" t="s">
-        <v>15</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F240" s="12" t="s">
+      <c r="J241">
+        <v>1413307033</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="16" t="s">
         <v>1757</v>
       </c>
-      <c r="G240" s="12" t="s">
+      <c r="B242" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="I240" s="11" t="s">
+      <c r="C242" s="10" t="s">
         <v>1759</v>
       </c>
-      <c r="J240">
-        <v>2476573077</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F242" s="14" t="s">
         <v>1760</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="I242" s="11" t="s">
         <v>1761</v>
       </c>
-      <c r="C241" s="10" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D241" t="s">
-        <v>15</v>
-      </c>
-      <c r="E241" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F241" s="12" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G241" s="12" t="s">
-        <v>1764</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>1765</v>
-      </c>
-      <c r="J241">
-        <v>1932874433</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="16" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B242" s="10" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D242" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F242" s="12" t="s">
-        <v>1769</v>
-      </c>
-      <c r="H242" s="14" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>1771</v>
-      </c>
       <c r="J242">
-        <v>4402076792509</v>
+        <v>1273678999</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B243" s="11" t="s">
-        <v>1729</v>
+        <v>1762</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>1763</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>1730</v>
+        <v>1764</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
       </c>
       <c r="E243" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>1731</v>
+        <v>1765</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>1766</v>
       </c>
       <c r="I243" s="10" t="s">
-        <v>1732</v>
+        <v>1767</v>
       </c>
       <c r="J243">
-        <v>1422365923</v>
+        <v>441904321350</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
       </c>
       <c r="E244" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F244" s="12" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>1773</v>
+        <v>1088</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>1771</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="J244">
-        <v>1522837337</v>
+        <v>1225383800</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H245" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I245" s="11" t="s">
         <v>1778</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D245" t="s">
-        <v>15</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G245" s="12" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H245" s="12" t="s">
-        <v>1782</v>
-      </c>
-      <c r="I245" s="11" t="s">
-        <v>1783</v>
-      </c>
       <c r="J245">
-        <v>2079115000</v>
+        <v>1158468722</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I246" s="11" t="s">
         <v>1784</v>
       </c>
-      <c r="B246" s="10" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D246" t="s">
-        <v>15</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F246" s="12" t="s">
+      <c r="J246">
+        <v>1292611809</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="16" t="s">
         <v>1785</v>
       </c>
-      <c r="G246" s="12" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I246" s="11" t="s">
+      <c r="B247" s="10" t="s">
         <v>1786</v>
       </c>
-      <c r="J246">
-        <v>441761411755</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="18" t="s">
+      <c r="C247" s="10" t="s">
         <v>1787</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F247" s="12" t="s">
         <v>1788</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="G247" s="12" t="s">
         <v>1789</v>
       </c>
-      <c r="D247" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F247" s="12" t="s">
+      <c r="I247" s="10" t="s">
         <v>1790</v>
       </c>
-      <c r="G247" s="12" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I247" s="11" t="s">
-        <v>1792</v>
-      </c>
       <c r="J247">
-        <v>1334462700</v>
+        <v>1392263568</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>1793</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I248" s="11" t="s">
         <v>1794</v>
       </c>
-      <c r="C248" s="10" t="s">
+      <c r="J248">
+        <v>1792513008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
         <v>1795</v>
       </c>
-      <c r="D248" t="s">
-        <v>15</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G248" s="12" t="s">
+      <c r="B249" s="9" t="s">
         <v>1796</v>
       </c>
-      <c r="I248" s="10" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J248">
-        <v>8700100600</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="16" t="s">
+      <c r="C249" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C249" s="10" t="s">
+      <c r="G249" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="D249" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G249" s="14" t="s">
+      <c r="I249" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="H249" s="12" t="s">
+      <c r="J249">
+        <v>441760722283</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>1801</v>
       </c>
-      <c r="I249" s="10" t="s">
+      <c r="B250" s="4" t="s">
         <v>1802</v>
       </c>
-      <c r="J249">
-        <v>1413307033</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="16" t="s">
+      <c r="C250" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>1804</v>
       </c>
-      <c r="C250" s="10" t="s">
+      <c r="B251" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="D250" t="s">
-        <v>15</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F250" s="14" t="s">
+      <c r="C251" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="I250" s="11" t="s">
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="J250">
-        <v>1273678999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="16" t="s">
+      <c r="G251" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="I251" s="4"/>
+      <c r="J251">
+        <v>442032860210</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
         <v>1809</v>
       </c>
-      <c r="C251" s="10" t="s">
+      <c r="B252" s="4" t="s">
         <v>1810</v>
       </c>
-      <c r="D251" t="s">
-        <v>15</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F251" s="12" t="s">
+      <c r="C252" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="G251" s="12" t="s">
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="I251" s="10" t="s">
+      <c r="G252" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="J251">
-        <v>441904321350</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="16" t="s">
+      <c r="J252">
+        <v>447973108519</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
         <v>1814</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B253" s="5" t="s">
         <v>1815</v>
       </c>
-      <c r="C252" s="10" t="s">
+      <c r="C253" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="D252" t="s">
-        <v>15</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F252" s="14" t="s">
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="I252" s="11" t="s">
+      <c r="G253" s="7" t="s">
         <v>1818</v>
       </c>
-      <c r="J252">
-        <v>1225383800</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="16" t="s">
+      <c r="I253" s="4" t="s">
         <v>1819</v>
       </c>
-      <c r="B253" s="10" t="s">
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
         <v>1820</v>
       </c>
-      <c r="C253" s="10" t="s">
+      <c r="B254" s="4" t="s">
         <v>1821</v>
       </c>
-      <c r="D253" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G253" s="12" t="s">
+      <c r="C254" s="5" t="s">
         <v>1822</v>
       </c>
-      <c r="H253" s="12" t="s">
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F254" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="I253" s="11" t="s">
+      <c r="G254" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="J253">
-        <v>1158468722</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="16" t="s">
+      <c r="I254" s="4" t="s">
         <v>1825</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="J254">
+        <v>1179259522</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>1826</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="B255" s="5" t="s">
         <v>1827</v>
       </c>
-      <c r="D254" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F254" s="12" t="s">
+      <c r="C255" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D255" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="G254" s="12" t="s">
-        <v>1829</v>
-      </c>
-      <c r="I254" s="11" t="s">
-        <v>1830</v>
-      </c>
-      <c r="J254">
-        <v>1292611809</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="16" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B255" s="10" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D255" t="s">
-        <v>15</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F255" s="12" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G255" s="12" t="s">
-        <v>1835</v>
-      </c>
-      <c r="I255" s="10" t="s">
-        <v>1836</v>
+      <c r="I255" s="4" t="s">
+        <v>1825</v>
       </c>
       <c r="J255">
-        <v>1392263568</v>
+        <v>1179259522</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D256" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J256">
+        <v>1179259522</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D257" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H257" s="12" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>1837</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="C258" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I258" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="C256" s="9" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D256" t="s">
-        <v>15</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I256" s="11" t="s">
-        <v>1840</v>
-      </c>
-      <c r="J256">
-        <v>1792513008</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D257" t="s">
-        <v>15</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>1846</v>
-      </c>
-      <c r="J257">
-        <v>441760722283</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D258" t="s">
-        <v>15</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1121</v>
+      <c r="J258">
+        <v>1268833978</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1851</v>
+        <v>1840</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>1852</v>
+        <v>1841</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
       </c>
       <c r="E259" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="I259" s="5" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J259">
-        <v>1612956303</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D260" t="s">
-        <v>15</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="I260" s="4"/>
-      <c r="J260">
-        <v>442032860210</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D261" t="s">
-        <v>15</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="J261">
-        <v>447973108519</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D262" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G262" s="7" t="s">
-        <v>1870</v>
-      </c>
-      <c r="I262" s="4" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D263" t="s">
-        <v>15</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I263" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J263">
-        <v>1179259522</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D264" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>1880</v>
-      </c>
-      <c r="I264" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J264">
-        <v>1179259522</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="16" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D265" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F265" s="12" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G265" s="12" t="s">
-        <v>1880</v>
-      </c>
-      <c r="I265" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J265">
-        <v>1179259522</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="13" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D266" t="s">
-        <v>15</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G266" s="12" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H266" s="12" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="8" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D267" t="s">
-        <v>15</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I267" s="4" t="s">
-        <v>1890</v>
-      </c>
-      <c r="J267">
-        <v>1268833978</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D268" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>1895</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -12944,100 +12580,92 @@
     <hyperlink ref="C57" r:id="rId11" xr:uid="{92E3FD99-B189-4021-A38C-D76F32BAF966}"/>
     <hyperlink ref="B68" r:id="rId12" xr:uid="{C99B3D5B-D86C-4A14-8769-936653561388}"/>
     <hyperlink ref="C68" r:id="rId13" xr:uid="{3616FFBC-4A22-48DA-8DF5-1A75BE220FCE}"/>
-    <hyperlink ref="B88" r:id="rId14" xr:uid="{2D34BF99-EFB6-4322-830B-C50200C8B38C}"/>
-    <hyperlink ref="F88" r:id="rId15" xr:uid="{36474359-3B3A-4CC5-A605-0CCB4047D5A0}"/>
-    <hyperlink ref="B89" r:id="rId16" xr:uid="{BF6081E8-4308-4363-900B-D8A7B2A17947}"/>
-    <hyperlink ref="C89" r:id="rId17" xr:uid="{CD521DFA-1BF0-45AD-991B-EA70B0CE9F96}"/>
-    <hyperlink ref="B90" r:id="rId18" xr:uid="{62B66A66-8599-4C0D-A1BD-79CB7C5FB2A7}"/>
-    <hyperlink ref="C90" r:id="rId19" xr:uid="{2C78A147-803B-4C71-8AA0-013CC746FD02}"/>
-    <hyperlink ref="B91" r:id="rId20" xr:uid="{D82A2834-AD1B-4B5C-9152-A94BE825F3A0}"/>
-    <hyperlink ref="C91" r:id="rId21" xr:uid="{805B412F-710A-4A8E-9133-B51F228E9BCA}"/>
-    <hyperlink ref="B92" r:id="rId22" xr:uid="{BA90327D-6768-40C4-825B-D3F9D24DBDCA}"/>
-    <hyperlink ref="C92" r:id="rId23" xr:uid="{0DF1BC58-AB97-4DFA-870B-17653FE0B28C}"/>
-    <hyperlink ref="B93" r:id="rId24" xr:uid="{752062BC-C161-4B97-B3D8-DB1072F79451}"/>
-    <hyperlink ref="C93" r:id="rId25" xr:uid="{4D34A041-2830-44D0-9DCD-4E772BAECB1F}"/>
-    <hyperlink ref="B94" r:id="rId26" xr:uid="{C3293D28-00F0-41A8-9E16-49971453CB90}"/>
-    <hyperlink ref="C94" r:id="rId27" xr:uid="{ACD1E763-89B2-47A8-AED2-BC5BC14906F0}"/>
-    <hyperlink ref="B101" r:id="rId28" xr:uid="{41DE0842-EF00-4179-93B4-7DD545763B4B}"/>
-    <hyperlink ref="C101" r:id="rId29" xr:uid="{3FDB4610-543A-4793-8C07-E02AB0C2BA47}"/>
-    <hyperlink ref="B102" r:id="rId30" xr:uid="{D539C772-9544-4A2A-8184-E51F68EC8AEF}"/>
-    <hyperlink ref="C102" r:id="rId31" xr:uid="{CD333DA8-6C8E-4BBA-B39F-C7F8C9BF3727}"/>
-    <hyperlink ref="B103" r:id="rId32" xr:uid="{A43B1B7A-4F15-448C-B6E7-7357B0AFFD5A}"/>
-    <hyperlink ref="C103" r:id="rId33" xr:uid="{C6E56D1C-C2CC-4E8C-9BE6-C5C9A6EB1623}"/>
-    <hyperlink ref="B104" r:id="rId34" xr:uid="{731846B4-E740-4C02-B9CB-A4725985038C}"/>
-    <hyperlink ref="C104" r:id="rId35" xr:uid="{50069450-667D-46A2-9569-4BB047CA56F8}"/>
-    <hyperlink ref="B105" r:id="rId36" xr:uid="{F75121F6-DC60-4C14-B400-AEE9AF5CA2D7}"/>
-    <hyperlink ref="C105" r:id="rId37" xr:uid="{350A4818-C6B7-48EB-A7E7-5D2DC597F66A}"/>
-    <hyperlink ref="B108" r:id="rId38" xr:uid="{244C9A05-6D4A-468E-8F46-B99A180200C6}"/>
-    <hyperlink ref="C108" r:id="rId39" xr:uid="{CC94A5D9-24C9-489F-98AB-305E41E813A3}"/>
-    <hyperlink ref="B109" r:id="rId40" xr:uid="{9DBA7FDB-72C7-4B8C-9448-C9A84D5BAF79}"/>
-    <hyperlink ref="B112" r:id="rId41" xr:uid="{9A030CE1-99EE-4107-959A-1F0412A076E8}"/>
-    <hyperlink ref="C114" r:id="rId42" xr:uid="{BCB7301D-0706-4DD8-83AD-3A909481C756}"/>
-    <hyperlink ref="B115" r:id="rId43" xr:uid="{8EB5D244-62BB-4C1C-9859-AB233A9CC05B}"/>
-    <hyperlink ref="C115" r:id="rId44" xr:uid="{130C0B8D-FDEB-4C7B-A286-409519113284}"/>
-    <hyperlink ref="B116" r:id="rId45" xr:uid="{FFB85116-5B50-471D-82FB-664B461F692D}"/>
-    <hyperlink ref="C116" r:id="rId46" xr:uid="{802DA1AE-950C-4E6E-814B-2A43215E03B3}"/>
-    <hyperlink ref="B117" r:id="rId47" xr:uid="{21D228BD-37A1-405A-99F7-F8A51A652AB1}"/>
-    <hyperlink ref="C117" r:id="rId48" xr:uid="{C3411EEF-713E-4F48-9C01-E04500C190E8}"/>
-    <hyperlink ref="B118" r:id="rId49" xr:uid="{9F7BBFDB-7243-447B-B3E0-EA9AB604F8E8}"/>
-    <hyperlink ref="C118" r:id="rId50" xr:uid="{046A9AFA-34E1-432E-B463-EBD22806C610}"/>
-    <hyperlink ref="B119" r:id="rId51" xr:uid="{93178767-2E2F-4CAF-A870-3D157D25A29B}"/>
-    <hyperlink ref="C119" r:id="rId52" xr:uid="{0B13DEC8-529A-44DA-BDC2-30BA4FE72753}"/>
-    <hyperlink ref="B120" r:id="rId53" xr:uid="{262572D9-4A6A-40D5-976E-5386312C1511}"/>
-    <hyperlink ref="C120" r:id="rId54" xr:uid="{1C5C604E-049C-41A1-B756-FD9A5D7603EC}"/>
-    <hyperlink ref="B121" r:id="rId55" xr:uid="{D18E2F24-97AB-407A-9D14-E0E99C92B8B0}"/>
-    <hyperlink ref="C121" r:id="rId56" xr:uid="{EE2AE9AD-1660-40F4-93F0-F8AAD8EE0598}"/>
-    <hyperlink ref="B122" r:id="rId57" xr:uid="{4105FE08-2218-46A5-8BE2-689F6048C3FD}"/>
-    <hyperlink ref="B123" r:id="rId58" xr:uid="{D9EA4F17-5BFC-4710-93AD-A33D5099FA21}"/>
-    <hyperlink ref="C123" r:id="rId59" xr:uid="{7CD0E8E6-9DAF-4B1C-9982-D9C4D4F40CF5}"/>
-    <hyperlink ref="B124" r:id="rId60" xr:uid="{84B6BCB3-11F8-4E58-AA20-390CA1488EA9}"/>
-    <hyperlink ref="C124" r:id="rId61" xr:uid="{2E558F51-CBF5-40E7-BC3F-7B347ECE4379}"/>
-    <hyperlink ref="B125" r:id="rId62" xr:uid="{BC29D65B-D65E-4BC7-809D-B66759A1EF2A}"/>
-    <hyperlink ref="C125" r:id="rId63" xr:uid="{1521A068-F674-402C-B168-4270DE4812EE}"/>
-    <hyperlink ref="B126" r:id="rId64" xr:uid="{B4E10078-1F21-40C2-A726-3E0EEDC6D02F}"/>
-    <hyperlink ref="C126" r:id="rId65" xr:uid="{09C15173-6D79-4F2E-BF6E-940436C53CC4}"/>
-    <hyperlink ref="B127" r:id="rId66" xr:uid="{644F2541-6E19-47C1-8FA7-ABA145A64076}"/>
-    <hyperlink ref="C127" r:id="rId67" xr:uid="{F7AA8D1B-1432-4CF1-A2EB-96F85757087C}"/>
-    <hyperlink ref="B128" r:id="rId68" xr:uid="{20488FFD-4DFC-41F7-8B8D-F9DD7979D19B}"/>
-    <hyperlink ref="C128" r:id="rId69" xr:uid="{9DE0AC44-7FAC-4F3A-B7B0-D54D02FDF9BF}"/>
-    <hyperlink ref="B129" r:id="rId70" xr:uid="{22512177-9805-457D-90A7-37D9DD782A5A}"/>
-    <hyperlink ref="C129" r:id="rId71" xr:uid="{3D435104-9040-48F9-A92E-01F35E0AC5D9}"/>
-    <hyperlink ref="B130" r:id="rId72" xr:uid="{E86548EE-DF0B-4F44-9425-D39E6D59D533}"/>
-    <hyperlink ref="C130" r:id="rId73" xr:uid="{E744650D-0892-4244-8B41-A0F7720721E1}"/>
-    <hyperlink ref="B131" r:id="rId74" xr:uid="{E46B2392-32C3-4FF3-9C35-82E3F94DC3FC}"/>
-    <hyperlink ref="C131" r:id="rId75" xr:uid="{539448B4-BF45-4B25-B9E7-5FAB7C5BEFF4}"/>
-    <hyperlink ref="B132" r:id="rId76" xr:uid="{56705AF6-C3D8-423D-9DCD-545E16F576E3}"/>
-    <hyperlink ref="C132" r:id="rId77" xr:uid="{B7007252-27E7-4B0B-A02A-FBEFE11E1AE8}"/>
-    <hyperlink ref="B133" r:id="rId78" xr:uid="{D21950DA-16A4-46C6-9CED-A115D6892AE6}"/>
-    <hyperlink ref="C133" r:id="rId79" xr:uid="{0AF10AAA-D164-468A-9340-24B4F55660C5}"/>
-    <hyperlink ref="B134" r:id="rId80" xr:uid="{D5C78604-FCD6-4EE7-8978-B393DBF32097}"/>
-    <hyperlink ref="C134" r:id="rId81" xr:uid="{A2E5A62C-C8B0-4708-9084-0F85409D3A74}"/>
-    <hyperlink ref="B135" r:id="rId82" xr:uid="{0BE9C62C-2D53-41D7-8F51-8A80C7F495F2}"/>
-    <hyperlink ref="C135" r:id="rId83" xr:uid="{7F6AA55C-5DE1-4BFB-AE8B-D0A1346F9C5B}"/>
-    <hyperlink ref="B136" r:id="rId84" xr:uid="{70159B47-1629-4DC9-ABBB-907014C948A8}"/>
-    <hyperlink ref="C136" r:id="rId85" xr:uid="{DF09F103-A07D-4847-A65B-0C5DF39F9DDB}"/>
-    <hyperlink ref="B138" r:id="rId86" xr:uid="{29769D01-6DFB-4AB7-A8C6-15B92DE53366}"/>
-    <hyperlink ref="C138" r:id="rId87" xr:uid="{99ABB3FD-1D8E-4070-A17C-C6785FF3F5CC}"/>
-    <hyperlink ref="B139" r:id="rId88" xr:uid="{7B8A95B8-59E8-43B5-BFC3-B60125AFDBF8}"/>
-    <hyperlink ref="C139" r:id="rId89" xr:uid="{1AE834AC-23ED-4BA8-98A5-A2B5A44D40D1}"/>
-    <hyperlink ref="B140" r:id="rId90" xr:uid="{8C5A1391-6C8E-4C7B-A5D8-0B7ECC704293}"/>
-    <hyperlink ref="C140" r:id="rId91" xr:uid="{A81AC1AC-9254-4834-B935-5061FC6518D2}"/>
-    <hyperlink ref="B141" r:id="rId92" xr:uid="{A5D778B3-2051-40F6-A6BC-AF51F2A9CBCA}"/>
-    <hyperlink ref="C141" r:id="rId93" xr:uid="{171DC6CB-C4D3-415C-9728-2906E2843E8E}"/>
-    <hyperlink ref="B142" r:id="rId94" xr:uid="{A5B7E9FF-F280-42D4-A873-4A6A57BBC2BC}"/>
-    <hyperlink ref="C142" r:id="rId95" xr:uid="{CF7209FB-657B-42C0-B9BF-F877BC844D29}"/>
-    <hyperlink ref="B143" r:id="rId96" xr:uid="{F91DDA85-6345-424A-BDC1-56621F483E31}"/>
-    <hyperlink ref="C143" r:id="rId97" xr:uid="{3A3CDEAC-B590-4C68-BC87-DA87BC3399B3}"/>
-    <hyperlink ref="B146" r:id="rId98" xr:uid="{FA94B454-08F7-48D4-8124-01A384BA1BA8}"/>
-    <hyperlink ref="C146" r:id="rId99" xr:uid="{518F3F69-C81C-4603-A570-0F5C323DB0B5}"/>
-    <hyperlink ref="B151" r:id="rId100" xr:uid="{C6DE36A6-9F10-4679-8078-E74F125E34C8}"/>
-    <hyperlink ref="B153" r:id="rId101" xr:uid="{C8F9F70B-41F0-4CA6-A2FF-ABC6F03D85BB}"/>
-    <hyperlink ref="C153" r:id="rId102" xr:uid="{75B6FB17-90F4-4A35-A91E-0B6BA9B9BDEE}"/>
-    <hyperlink ref="B156" r:id="rId103" xr:uid="{D2CF21D3-25D6-4616-8F19-AC8DE9DC15BA}"/>
-    <hyperlink ref="C161" r:id="rId104" xr:uid="{DD83009B-2755-4A80-A559-CDCAA0D7FC64}"/>
-    <hyperlink ref="C174" r:id="rId105" xr:uid="{068F8209-6680-4A1F-9273-6AA7FE8C10FF}"/>
-    <hyperlink ref="C256" r:id="rId106" xr:uid="{A3D027C1-7AD4-48CF-B9A4-0FB475AAA377}"/>
-    <hyperlink ref="B257" r:id="rId107" xr:uid="{9E01C16C-5199-4ABE-AC13-53EB50E7A991}"/>
+    <hyperlink ref="B87" r:id="rId14" xr:uid="{2D34BF99-EFB6-4322-830B-C50200C8B38C}"/>
+    <hyperlink ref="F87" r:id="rId15" xr:uid="{36474359-3B3A-4CC5-A605-0CCB4047D5A0}"/>
+    <hyperlink ref="B88" r:id="rId16" xr:uid="{BF6081E8-4308-4363-900B-D8A7B2A17947}"/>
+    <hyperlink ref="C88" r:id="rId17" xr:uid="{CD521DFA-1BF0-45AD-991B-EA70B0CE9F96}"/>
+    <hyperlink ref="B89" r:id="rId18" xr:uid="{62B66A66-8599-4C0D-A1BD-79CB7C5FB2A7}"/>
+    <hyperlink ref="C89" r:id="rId19" xr:uid="{2C78A147-803B-4C71-8AA0-013CC746FD02}"/>
+    <hyperlink ref="B90" r:id="rId20" xr:uid="{D82A2834-AD1B-4B5C-9152-A94BE825F3A0}"/>
+    <hyperlink ref="C90" r:id="rId21" xr:uid="{805B412F-710A-4A8E-9133-B51F228E9BCA}"/>
+    <hyperlink ref="B91" r:id="rId22" xr:uid="{BA90327D-6768-40C4-825B-D3F9D24DBDCA}"/>
+    <hyperlink ref="C91" r:id="rId23" xr:uid="{0DF1BC58-AB97-4DFA-870B-17653FE0B28C}"/>
+    <hyperlink ref="B92" r:id="rId24" xr:uid="{752062BC-C161-4B97-B3D8-DB1072F79451}"/>
+    <hyperlink ref="C92" r:id="rId25" xr:uid="{4D34A041-2830-44D0-9DCD-4E772BAECB1F}"/>
+    <hyperlink ref="B93" r:id="rId26" xr:uid="{C3293D28-00F0-41A8-9E16-49971453CB90}"/>
+    <hyperlink ref="C93" r:id="rId27" xr:uid="{ACD1E763-89B2-47A8-AED2-BC5BC14906F0}"/>
+    <hyperlink ref="B99" r:id="rId28" xr:uid="{41DE0842-EF00-4179-93B4-7DD545763B4B}"/>
+    <hyperlink ref="C99" r:id="rId29" xr:uid="{3FDB4610-543A-4793-8C07-E02AB0C2BA47}"/>
+    <hyperlink ref="B100" r:id="rId30" xr:uid="{D539C772-9544-4A2A-8184-E51F68EC8AEF}"/>
+    <hyperlink ref="C100" r:id="rId31" xr:uid="{CD333DA8-6C8E-4BBA-B39F-C7F8C9BF3727}"/>
+    <hyperlink ref="B101" r:id="rId32" xr:uid="{A43B1B7A-4F15-448C-B6E7-7357B0AFFD5A}"/>
+    <hyperlink ref="C101" r:id="rId33" xr:uid="{C6E56D1C-C2CC-4E8C-9BE6-C5C9A6EB1623}"/>
+    <hyperlink ref="B102" r:id="rId34" xr:uid="{731846B4-E740-4C02-B9CB-A4725985038C}"/>
+    <hyperlink ref="C102" r:id="rId35" xr:uid="{50069450-667D-46A2-9569-4BB047CA56F8}"/>
+    <hyperlink ref="B103" r:id="rId36" xr:uid="{F75121F6-DC60-4C14-B400-AEE9AF5CA2D7}"/>
+    <hyperlink ref="C103" r:id="rId37" xr:uid="{350A4818-C6B7-48EB-A7E7-5D2DC597F66A}"/>
+    <hyperlink ref="B106" r:id="rId38" xr:uid="{244C9A05-6D4A-468E-8F46-B99A180200C6}"/>
+    <hyperlink ref="C106" r:id="rId39" xr:uid="{CC94A5D9-24C9-489F-98AB-305E41E813A3}"/>
+    <hyperlink ref="B107" r:id="rId40" xr:uid="{9DBA7FDB-72C7-4B8C-9448-C9A84D5BAF79}"/>
+    <hyperlink ref="B110" r:id="rId41" xr:uid="{9A030CE1-99EE-4107-959A-1F0412A076E8}"/>
+    <hyperlink ref="C112" r:id="rId42" xr:uid="{BCB7301D-0706-4DD8-83AD-3A909481C756}"/>
+    <hyperlink ref="B113" r:id="rId43" xr:uid="{8EB5D244-62BB-4C1C-9859-AB233A9CC05B}"/>
+    <hyperlink ref="C113" r:id="rId44" xr:uid="{130C0B8D-FDEB-4C7B-A286-409519113284}"/>
+    <hyperlink ref="B114" r:id="rId45" xr:uid="{FFB85116-5B50-471D-82FB-664B461F692D}"/>
+    <hyperlink ref="C114" r:id="rId46" xr:uid="{802DA1AE-950C-4E6E-814B-2A43215E03B3}"/>
+    <hyperlink ref="B115" r:id="rId47" xr:uid="{21D228BD-37A1-405A-99F7-F8A51A652AB1}"/>
+    <hyperlink ref="C115" r:id="rId48" xr:uid="{C3411EEF-713E-4F48-9C01-E04500C190E8}"/>
+    <hyperlink ref="B116" r:id="rId49" xr:uid="{9F7BBFDB-7243-447B-B3E0-EA9AB604F8E8}"/>
+    <hyperlink ref="C116" r:id="rId50" xr:uid="{046A9AFA-34E1-432E-B463-EBD22806C610}"/>
+    <hyperlink ref="B117" r:id="rId51" xr:uid="{93178767-2E2F-4CAF-A870-3D157D25A29B}"/>
+    <hyperlink ref="C117" r:id="rId52" xr:uid="{0B13DEC8-529A-44DA-BDC2-30BA4FE72753}"/>
+    <hyperlink ref="B118" r:id="rId53" xr:uid="{262572D9-4A6A-40D5-976E-5386312C1511}"/>
+    <hyperlink ref="C118" r:id="rId54" xr:uid="{1C5C604E-049C-41A1-B756-FD9A5D7603EC}"/>
+    <hyperlink ref="B119" r:id="rId55" xr:uid="{D18E2F24-97AB-407A-9D14-E0E99C92B8B0}"/>
+    <hyperlink ref="C119" r:id="rId56" xr:uid="{EE2AE9AD-1660-40F4-93F0-F8AAD8EE0598}"/>
+    <hyperlink ref="B120" r:id="rId57" xr:uid="{4105FE08-2218-46A5-8BE2-689F6048C3FD}"/>
+    <hyperlink ref="B121" r:id="rId58" xr:uid="{D9EA4F17-5BFC-4710-93AD-A33D5099FA21}"/>
+    <hyperlink ref="C121" r:id="rId59" xr:uid="{7CD0E8E6-9DAF-4B1C-9982-D9C4D4F40CF5}"/>
+    <hyperlink ref="B122" r:id="rId60" xr:uid="{84B6BCB3-11F8-4E58-AA20-390CA1488EA9}"/>
+    <hyperlink ref="C122" r:id="rId61" xr:uid="{2E558F51-CBF5-40E7-BC3F-7B347ECE4379}"/>
+    <hyperlink ref="B123" r:id="rId62" xr:uid="{BC29D65B-D65E-4BC7-809D-B66759A1EF2A}"/>
+    <hyperlink ref="C123" r:id="rId63" xr:uid="{1521A068-F674-402C-B168-4270DE4812EE}"/>
+    <hyperlink ref="B124" r:id="rId64" xr:uid="{B4E10078-1F21-40C2-A726-3E0EEDC6D02F}"/>
+    <hyperlink ref="C124" r:id="rId65" xr:uid="{09C15173-6D79-4F2E-BF6E-940436C53CC4}"/>
+    <hyperlink ref="B125" r:id="rId66" xr:uid="{644F2541-6E19-47C1-8FA7-ABA145A64076}"/>
+    <hyperlink ref="C125" r:id="rId67" xr:uid="{F7AA8D1B-1432-4CF1-A2EB-96F85757087C}"/>
+    <hyperlink ref="B126" r:id="rId68" xr:uid="{22512177-9805-457D-90A7-37D9DD782A5A}"/>
+    <hyperlink ref="C126" r:id="rId69" xr:uid="{3D435104-9040-48F9-A92E-01F35E0AC5D9}"/>
+    <hyperlink ref="B127" r:id="rId70" xr:uid="{E46B2392-32C3-4FF3-9C35-82E3F94DC3FC}"/>
+    <hyperlink ref="C127" r:id="rId71" xr:uid="{539448B4-BF45-4B25-B9E7-5FAB7C5BEFF4}"/>
+    <hyperlink ref="B128" r:id="rId72" xr:uid="{56705AF6-C3D8-423D-9DCD-545E16F576E3}"/>
+    <hyperlink ref="C128" r:id="rId73" xr:uid="{B7007252-27E7-4B0B-A02A-FBEFE11E1AE8}"/>
+    <hyperlink ref="B129" r:id="rId74" xr:uid="{D5C78604-FCD6-4EE7-8978-B393DBF32097}"/>
+    <hyperlink ref="C129" r:id="rId75" xr:uid="{A2E5A62C-C8B0-4708-9084-0F85409D3A74}"/>
+    <hyperlink ref="B130" r:id="rId76" xr:uid="{0BE9C62C-2D53-41D7-8F51-8A80C7F495F2}"/>
+    <hyperlink ref="C130" r:id="rId77" xr:uid="{7F6AA55C-5DE1-4BFB-AE8B-D0A1346F9C5B}"/>
+    <hyperlink ref="B131" r:id="rId78" xr:uid="{70159B47-1629-4DC9-ABBB-907014C948A8}"/>
+    <hyperlink ref="C131" r:id="rId79" xr:uid="{DF09F103-A07D-4847-A65B-0C5DF39F9DDB}"/>
+    <hyperlink ref="B133" r:id="rId80" xr:uid="{29769D01-6DFB-4AB7-A8C6-15B92DE53366}"/>
+    <hyperlink ref="C133" r:id="rId81" xr:uid="{99ABB3FD-1D8E-4070-A17C-C6785FF3F5CC}"/>
+    <hyperlink ref="B134" r:id="rId82" xr:uid="{7B8A95B8-59E8-43B5-BFC3-B60125AFDBF8}"/>
+    <hyperlink ref="C134" r:id="rId83" xr:uid="{1AE834AC-23ED-4BA8-98A5-A2B5A44D40D1}"/>
+    <hyperlink ref="B135" r:id="rId84" xr:uid="{A5D778B3-2051-40F6-A6BC-AF51F2A9CBCA}"/>
+    <hyperlink ref="C135" r:id="rId85" xr:uid="{171DC6CB-C4D3-415C-9728-2906E2843E8E}"/>
+    <hyperlink ref="B136" r:id="rId86" xr:uid="{A5B7E9FF-F280-42D4-A873-4A6A57BBC2BC}"/>
+    <hyperlink ref="C136" r:id="rId87" xr:uid="{CF7209FB-657B-42C0-B9BF-F877BC844D29}"/>
+    <hyperlink ref="B137" r:id="rId88" xr:uid="{F91DDA85-6345-424A-BDC1-56621F483E31}"/>
+    <hyperlink ref="C137" r:id="rId89" xr:uid="{3A3CDEAC-B590-4C68-BC87-DA87BC3399B3}"/>
+    <hyperlink ref="B140" r:id="rId90" xr:uid="{FA94B454-08F7-48D4-8124-01A384BA1BA8}"/>
+    <hyperlink ref="C140" r:id="rId91" xr:uid="{518F3F69-C81C-4603-A570-0F5C323DB0B5}"/>
+    <hyperlink ref="B145" r:id="rId92" xr:uid="{C6DE36A6-9F10-4679-8078-E74F125E34C8}"/>
+    <hyperlink ref="B147" r:id="rId93" xr:uid="{C8F9F70B-41F0-4CA6-A2FF-ABC6F03D85BB}"/>
+    <hyperlink ref="C147" r:id="rId94" xr:uid="{75B6FB17-90F4-4A35-A91E-0B6BA9B9BDEE}"/>
+    <hyperlink ref="B150" r:id="rId95" xr:uid="{D2CF21D3-25D6-4616-8F19-AC8DE9DC15BA}"/>
+    <hyperlink ref="C155" r:id="rId96" xr:uid="{DD83009B-2755-4A80-A559-CDCAA0D7FC64}"/>
+    <hyperlink ref="C168" r:id="rId97" xr:uid="{068F8209-6680-4A1F-9273-6AA7FE8C10FF}"/>
+    <hyperlink ref="C248" r:id="rId98" xr:uid="{A3D027C1-7AD4-48CF-B9A4-0FB475AAA377}"/>
+    <hyperlink ref="B249" r:id="rId99" xr:uid="{9E01C16C-5199-4ABE-AC13-53EB50E7A991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13384,881 +13012,881 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>651</v>
+      </c>
+      <c r="F15" t="s">
+        <v>652</v>
+      </c>
+      <c r="G15" t="s">
+        <v>653</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>657</v>
-      </c>
-      <c r="F15" t="s">
-        <v>658</v>
-      </c>
-      <c r="G15" t="s">
-        <v>659</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="H16" s="2"/>
       <c r="K16" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F17" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>668</v>
+      </c>
+      <c r="F18" t="s">
         <v>674</v>
       </c>
-      <c r="F18" t="s">
-        <v>680</v>
-      </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="H19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F20" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G20" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="F21" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="H21" s="2"/>
       <c r="J21">
         <v>48730145728</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F22" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="H22" s="2"/>
       <c r="K22" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F23" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="G23" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F24" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="F25" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="J25">
         <v>74999657779</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F26" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H26" s="2"/>
       <c r="K26" s="1" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F27" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="H27" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="G28" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F29" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="F30" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="K30" s="1" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1060</v>
+        <v>1027</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1061</v>
+        <v>1028</v>
       </c>
       <c r="H31" s="2"/>
       <c r="K31" s="5" t="s">
-        <v>1062</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1064</v>
+        <v>1031</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>1066</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1067</v>
+        <v>1034</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1068</v>
+        <v>1035</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>1059</v>
+        <v>1026</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1069</v>
+        <v>1036</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1070</v>
+        <v>1037</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>1071</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1107</v>
+        <v>1074</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>1108</v>
+        <v>1075</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>1109</v>
+        <v>1076</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1110</v>
+        <v>1077</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1111</v>
+        <v>1078</v>
       </c>
       <c r="H34" s="2"/>
       <c r="J34">
         <v>380932818535</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1112</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1265</v>
+        <v>1228</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
-        <v>1266</v>
+        <v>1229</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1267</v>
+        <v>1230</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1268</v>
+        <v>1231</v>
       </c>
       <c r="H35" s="2"/>
       <c r="K35" s="9" t="s">
-        <v>1269</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1270</v>
+        <v>1233</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1271</v>
+        <v>1234</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1272</v>
+        <v>1235</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1273</v>
+        <v>1236</v>
       </c>
       <c r="J36">
         <v>4407840554087</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>1274</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1275</v>
+        <v>1238</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1276</v>
+        <v>1239</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1277</v>
+        <v>1240</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1278</v>
+        <v>1241</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>1279</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>1280</v>
+        <v>1243</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1281</v>
+        <v>1244</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>1282</v>
+        <v>1245</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>1283</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>1284</v>
+        <v>1247</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1285</v>
+        <v>1248</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1286</v>
+        <v>1249</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>1287</v>
+        <v>1250</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>1288</v>
+        <v>1251</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>1289</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>1290</v>
+        <v>1253</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1291</v>
+        <v>1254</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>1292</v>
+        <v>1255</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>1293</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>1294</v>
+        <v>1257</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1295</v>
+        <v>1258</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>1296</v>
+        <v>1259</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>1297</v>
+        <v>1260</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>1298</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>1299</v>
+        <v>1262</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1300</v>
+        <v>1263</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>1301</v>
+        <v>1264</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>1303</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>1304</v>
+        <v>1267</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1305</v>
+        <v>1268</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>1306</v>
+        <v>1269</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>1307</v>
+        <v>1270</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>1308</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>1309</v>
+        <v>1272</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1310</v>
+        <v>1273</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>1311</v>
+        <v>1274</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>1312</v>
+        <v>1275</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>1313</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>1314</v>
+        <v>1277</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1315</v>
+        <v>1278</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>1316</v>
+        <v>1279</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>1317</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>1318</v>
+        <v>1281</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1319</v>
+        <v>1282</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>1320</v>
+        <v>1283</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>1321</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>1322</v>
+        <v>1285</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1323</v>
+        <v>1286</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1324</v>
+        <v>1287</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>1325</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>1326</v>
+        <v>1289</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1327</v>
+        <v>1290</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>1328</v>
+        <v>1291</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>1329</v>
+        <v>1292</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>1330</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>1331</v>
+        <v>1294</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1332</v>
+        <v>1295</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>1333</v>
+        <v>1296</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>1334</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>1335</v>
+        <v>1298</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1336</v>
+        <v>1299</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>1337</v>
+        <v>1300</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>1338</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1339</v>
+        <v>1302</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1340</v>
+        <v>1303</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1341</v>
+        <v>1304</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>1342</v>
+        <v>1305</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>1343</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1344</v>
+        <v>1307</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1345</v>
+        <v>1308</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>1346</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -14348,82 +13976,82 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>1118</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1119</v>
+        <v>1086</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1120</v>
+        <v>1087</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1122</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1123</v>
+        <v>1090</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1124</v>
+        <v>1091</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1125</v>
+        <v>1092</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1126</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>1127</v>
+        <v>1094</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1128</v>
+        <v>1095</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1129</v>
+        <v>1096</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1130</v>
+        <v>1097</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1131</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1132</v>
+        <v>1099</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1134</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -14433,10 +14061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D386E-CBEC-4FB1-9297-C88EC9A93379}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14471,156 +14099,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>837</v>
+      <c r="A2" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1104</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
-      </c>
-      <c r="F2" t="s">
-        <v>838</v>
+        <v>1088</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1136</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1137</v>
+        <v>1107</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1149</v>
+      <c r="C6" s="5" t="s">
+        <v>1122</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F39DB838-2896-469F-A358-C09B212EB20B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{684BD258-F3C5-40ED-B1A3-7202063E1A32}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14629,7 +14213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D679B3A-6FF4-4113-9593-1BFF859C82FF}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -14702,7 +14286,7 @@
         <v>336</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1896</v>
+        <v>1844</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>335</v>
@@ -15064,22 +14648,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>1160</v>
+        <v>1123</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1161</v>
+        <v>1124</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1162</v>
+        <v>1125</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>1163</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -15231,45 +14815,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1164</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1165</v>
+        <v>1128</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1166</v>
+        <v>1129</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1167</v>
+        <v>1130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1168</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -15523,73 +15107,73 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="E11" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="E12" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="G12" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1052</v>
+        <v>1019</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1053</v>
+        <v>1020</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="F13" t="s">
-        <v>1054</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1053</v>
+        <v>1020</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="I14">
         <v>41582363636</v>
@@ -15597,42 +15181,42 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1169</v>
+        <v>1132</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1170</v>
+        <v>1133</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1171</v>
+        <v>1134</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1172</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>1173</v>
+        <v>1136</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1174</v>
+        <v>1137</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1175</v>
+        <v>1138</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1176</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -15726,10 +15310,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -15738,413 +15322,413 @@
         <v>466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F5" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G6" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="H6" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F7" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="H7" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>1177</v>
+        <v>1140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1178</v>
+        <v>1141</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1179</v>
+        <v>1142</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1180</v>
+        <v>1143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1177</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>1181</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1182</v>
+        <v>1145</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1183</v>
+        <v>1146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1184</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1185</v>
+        <v>1148</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1186</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1187</v>
+        <v>1150</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1188</v>
+        <v>1151</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1189</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1190</v>
+        <v>1153</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1191</v>
+        <v>1154</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1192</v>
+        <v>1155</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1193</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>1194</v>
+        <v>1157</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1195</v>
+        <v>1158</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1196</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>1197</v>
+        <v>1160</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1198</v>
+        <v>1161</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1199</v>
+        <v>1162</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1200</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>1201</v>
+        <v>1164</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1202</v>
+        <v>1165</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1203</v>
+        <v>1166</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1204</v>
+        <v>1167</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>1205</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>1206</v>
+        <v>1169</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1207</v>
+        <v>1170</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1208</v>
+        <v>1171</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1209</v>
+        <v>1172</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1210</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>1211</v>
+        <v>1174</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1212</v>
+        <v>1175</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1213</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>1213</v>
+        <v>1176</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1214</v>
+        <v>1177</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F17" t="s">
-        <v>1215</v>
+        <v>1178</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1216</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>1217</v>
+        <v>1180</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1218</v>
+        <v>1181</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1219</v>
+        <v>1182</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>1221</v>
+        <v>1184</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1222</v>
+        <v>1185</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1223</v>
+        <v>1186</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>1224</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>1225</v>
+        <v>1188</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1226</v>
+        <v>1189</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1227</v>
+        <v>1190</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1228</v>
+        <v>1191</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1229</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1230</v>
+        <v>1193</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1231</v>
+        <v>1194</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1232</v>
+        <v>1195</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1233</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>1234</v>
+        <v>1197</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1235</v>
+        <v>1198</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1236</v>
+        <v>1199</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>1237</v>
+        <v>1200</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>1238</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1239</v>
+        <v>1202</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1240</v>
+        <v>1203</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1241</v>
+        <v>1204</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1242</v>
+        <v>1205</v>
       </c>
       <c r="J23">
         <v>7005963770</v>
@@ -16152,45 +15736,45 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1243</v>
+        <v>1206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1244</v>
+        <v>1207</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>1245</v>
+        <v>1208</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1246</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>1247</v>
+        <v>1210</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1248</v>
+        <v>1211</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>1249</v>
+        <v>1212</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>1250</v>
+        <v>1213</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>1251</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -16341,45 +15925,45 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F7" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="I7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="J7">
         <v>3300656828888</v>
@@ -16387,109 +15971,109 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F8" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="G8" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>1104</v>
+        <v>1071</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>1075</v>
+        <v>1042</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1105</v>
+        <v>1072</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1106</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1252</v>
+        <v>1215</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1253</v>
+        <v>1216</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1254</v>
+        <v>1217</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1255</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1256</v>
+        <v>1219</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1257</v>
+        <v>1220</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1258</v>
+        <v>1221</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1259</v>
+        <v>1222</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1260</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1261</v>
+        <v>1224</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1262</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1263</v>
+        <v>1226</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1264</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
